--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,198 +665,222 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="F7" s="2">
         <v>43771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1317100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1303600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1443200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1480100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3067700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1541100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1536100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1558200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3130400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1566900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1541200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1433900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2132400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>984400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>470400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>455400</v>
+      </c>
+      <c r="F9" s="3">
         <v>501000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>482300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>994000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>501400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>490400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>497600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>986300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>495200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>535100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>667300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>843500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>335900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>846700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>848200</v>
+      </c>
+      <c r="F10" s="3">
         <v>942200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>997800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2073700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1039700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1045700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1060600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2144100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1071700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1006100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>766600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1288900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>648500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,52 +897,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>257100</v>
+      </c>
+      <c r="F12" s="3">
         <v>277000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>280100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>573200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>287400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>295300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>291600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>578100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>288600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>273700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>275700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>419200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>184000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,96 +993,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F14" s="3">
         <v>64800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>29900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>21800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>58400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>57300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>49500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>49500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>107200</v>
+        <v>107100</v>
       </c>
       <c r="E15" s="3">
         <v>107200</v>
       </c>
       <c r="F15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="H15" s="3">
         <v>214600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>107300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>107300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>107400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>214100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>107000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>98300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>112200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>86900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>18200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1064,96 +1114,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1104900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1033400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2142200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1085300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1069900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1069200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2186000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1125000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1093000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1239100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1720300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>718200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>273500</v>
+      </c>
+      <c r="F18" s="3">
         <v>338300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>446700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>925500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>455800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>466200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>489000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>944400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>441900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>448200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>194800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>412100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>266200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1170,228 +1234,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>22200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>548400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>479000</v>
+      </c>
+      <c r="F21" s="3">
         <v>543800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>653600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1328700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>659300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>669600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>692000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1346300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>641800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>634900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>402300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>626100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>330200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F22" s="3">
         <v>50800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>59900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>118400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>58700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>59100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>61700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>132800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>68000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>63500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>73100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>114300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>42600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>295100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>226200</v>
+      </c>
+      <c r="F23" s="3">
         <v>287800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>389600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>808300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>399900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>409300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>430500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>815500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>375300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>381700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>126800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>320000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>233300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F24" s="3">
         <v>10100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>27200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>85400</v>
       </c>
-      <c r="G24" s="3">
-        <v>44900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4500</v>
-      </c>
       <c r="I24" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="K24" s="3">
         <v>21900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>121900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>82100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>34000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>57900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>16200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1434,96 +1530,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F26" s="3">
         <v>277700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>362400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>722900</v>
       </c>
-      <c r="G26" s="3">
-        <v>355000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>404900</v>
-      </c>
       <c r="I26" s="3">
+        <v>362500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>458900</v>
+      </c>
+      <c r="K26" s="3">
         <v>408600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>693600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>293200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>347700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>68900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>310700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>217100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F27" s="3">
         <v>277200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>361600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>721000</v>
       </c>
-      <c r="G27" s="3">
-        <v>354000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>403400</v>
-      </c>
       <c r="I27" s="3">
+        <v>361500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>457400</v>
+      </c>
+      <c r="K27" s="3">
         <v>407000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>690700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>292000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>346400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>67900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>310700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>217000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1566,40 +1680,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-5100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-7500</v>
+      </c>
       <c r="J29" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-47400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-47400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1610,8 +1730,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1654,8 +1780,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1698,96 +1830,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-22200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>203900</v>
+      </c>
+      <c r="F33" s="3">
         <v>277200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>361600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>721000</v>
       </c>
-      <c r="G33" s="3">
-        <v>361500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>396800</v>
-      </c>
       <c r="I33" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>403400</v>
+      </c>
+      <c r="K33" s="3">
         <v>407000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>643300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>244600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>346400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>67900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>310700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>217000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1830,101 +1980,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>203900</v>
+      </c>
+      <c r="F35" s="3">
         <v>277200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>361600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>721000</v>
       </c>
-      <c r="G35" s="3">
-        <v>361500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>396800</v>
-      </c>
       <c r="I35" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>403400</v>
+      </c>
+      <c r="K35" s="3">
         <v>407000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>643300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>244600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>346400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>67900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>310700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>217000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="F38" s="2">
         <v>43771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1941,8 +2109,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1959,52 +2129,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>784900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>654400</v>
+      </c>
+      <c r="F41" s="3">
         <v>648300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>612200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>713600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>605900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>816600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>772600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>806500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>827600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1047800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>908600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5697700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4987300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2029,334 +2207,382 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>490600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1329800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>588200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>584400</v>
+      </c>
+      <c r="F43" s="3">
         <v>635100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>690000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>686000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>713700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>639700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>710800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>759600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>709800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>689000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>692600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>630400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>472500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>590300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>588500</v>
+      </c>
+      <c r="F44" s="3">
         <v>609900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>638300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>608100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>593200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>586800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>563600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>551200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>559700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>550800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>519700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>647900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>365600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>83900</v>
+      </c>
+      <c r="F45" s="3">
         <v>91800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>66600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>72800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>72400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>134900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>69600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>71000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>80700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>63700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>67800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>68900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>78600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2051300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1911200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1985100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2007100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2080500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1985200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2112100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2116600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2188300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2177700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2351300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2188600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7535500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7233700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E47" s="3">
         <v>30200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="G47" s="3">
         <v>32300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>31600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>34800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>28700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>28500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>27000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>26200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>24800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>29000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>28500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>23000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1436000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1220000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1221200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1211500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1181700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1154300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1108000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1114600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1115400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1107300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1098800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1089300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>628900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16182600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16330100</v>
+      </c>
+      <c r="F49" s="3">
         <v>16474100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>16594300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>16739600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>16885600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>21809000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17174900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17324400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17406500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17536900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17682500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>17857400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2206900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2399,8 +2625,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2443,52 +2675,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1608000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1669200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1683300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1711800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1713200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1741000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>112400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>120600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>122200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>127400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>120900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>116000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>112000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>110800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2531,52 +2775,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21350900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21376800</v>
+      </c>
+      <c r="F54" s="3">
         <v>21392600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21566700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21776300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21828300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>20438400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>20548600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>20776500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>20853300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21141300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21115000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>26622700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10203400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2593,8 +2849,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2611,272 +2869,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>194200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>211700</v>
+      </c>
+      <c r="F57" s="3">
         <v>225300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>220200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>208200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>222600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>260900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>215700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>213300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>223100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>236600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>228100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>190200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>156700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>448900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>748500</v>
+      </c>
+      <c r="F58" s="3">
         <v>299700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>411400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>374200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>67000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>22500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>56000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>50000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="3">
-        <v>4321200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+        <v>4321200</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>938800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>810400</v>
+      </c>
+      <c r="F59" s="3">
         <v>983700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>852000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>782600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>627400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1211200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1163600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>963400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1059700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>873000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>937900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>655000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1582000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1770500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1508600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1483700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1365000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>850000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1051700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1338900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1432900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1236500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1596300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1101100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5449300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>811600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5142200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4745300</v>
+      </c>
+      <c r="F61" s="3">
         <v>5192300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5278600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5612400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6234500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6265700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6532700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6926400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7384900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7551100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8199200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>8572400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3805400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3035900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3171500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2982600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3014100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3056700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3158400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1852800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1820800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1831800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1884100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1832300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1891800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2634400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>279900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2919,8 +3215,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2963,8 +3265,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3007,52 +3315,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9760100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9687300</v>
+      </c>
+      <c r="F66" s="3">
         <v>9683500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9776400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10034100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10242800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9170200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9692400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10191100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10505500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10979800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11192100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16656100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4896900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3069,8 +3389,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3113,8 +3435,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3157,8 +3485,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3201,8 +3535,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3245,52 +3585,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6945400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6906300</v>
+      </c>
+      <c r="F72" s="3">
         <v>6899300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6821800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6659400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>6491000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5982700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5449500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5213900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5012400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4910900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4730100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4827500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4873200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3333,8 +3685,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3377,8 +3735,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3421,52 +3785,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11590900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11689500</v>
+      </c>
+      <c r="F76" s="3">
         <v>11709200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11790200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11742300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11585400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11268200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10856200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10585400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10347800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10161500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9922900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9966600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5306400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3509,101 +3885,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="F80" s="2">
         <v>43771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>203900</v>
+      </c>
+      <c r="F81" s="3">
         <v>277200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>361600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>721000</v>
       </c>
-      <c r="G81" s="3">
-        <v>361500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>396800</v>
-      </c>
       <c r="I81" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>403400</v>
+      </c>
+      <c r="K81" s="3">
         <v>407000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>643300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>244600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>346400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>67900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>310700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>217000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3620,52 +4014,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>203900</v>
+      </c>
+      <c r="F83" s="3">
         <v>205200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>204100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>402000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>200600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>201200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>199900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>398000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>198500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>189700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>202500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>191900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>54300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3708,8 +4110,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3752,8 +4160,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3796,8 +4210,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3840,8 +4260,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3884,52 +4310,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>349600</v>
+      </c>
+      <c r="F89" s="3">
         <v>657900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>552500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1042600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>371800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>714400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>620700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1107200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>388700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>610700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-360000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>861900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>322600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3946,52 +4384,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-51100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-58100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-166200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-91000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-86000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-51800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-117100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-63200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-65200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-63600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-150500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-56700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4034,8 +4480,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4078,52 +4530,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-63800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-58600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-170800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-96200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-89000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-54500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-170500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-64500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>426100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1769800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4140,52 +4604,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-228600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-199200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-200100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-377200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-177700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-179400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-178900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-345000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-166700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-166900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-166300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-269000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-129700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4228,8 +4700,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4272,8 +4750,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4316,136 +4800,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-235700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-289600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-557100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-594600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-975100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-486100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-580700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-599100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-548000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-490100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>10971700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1982600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F102" s="3">
         <v>36200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-101400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-103000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-210700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>44000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-33900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-241300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-220300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>139300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4776600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4066100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,234 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
         <v>43953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1456100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1317100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1303600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1443200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1480100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3067700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1541100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1536100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1558200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3130400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1566900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1541200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1433900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2132400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>984400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>483600</v>
+      </c>
+      <c r="E9" s="3">
         <v>470400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>455400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>501000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>482300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>994000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>501400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>490400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>497600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>986300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>495200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>535100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>667300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>843500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>335900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>972500</v>
+      </c>
+      <c r="E10" s="3">
         <v>846700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>848200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>942200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>997800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2073700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1039700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1045700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1060600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2144100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1071700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1006100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>766600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1288900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>648500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,58 +911,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>260800</v>
+      </c>
+      <c r="E12" s="3">
         <v>252400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>257100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>277000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>280100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>573200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>287400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>295300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>291600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>578100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>288600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>273700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>275700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>419200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>184000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,58 +1015,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>64800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>58400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>57300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>49500</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>49500</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>49500</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1080,7 @@
         <v>107100</v>
       </c>
       <c r="E15" s="3">
-        <v>107200</v>
+        <v>107100</v>
       </c>
       <c r="F15" s="3">
         <v>107200</v>
@@ -1067,40 +1089,43 @@
         <v>107200</v>
       </c>
       <c r="H15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="I15" s="3">
         <v>214600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>107300</v>
       </c>
       <c r="J15" s="3">
         <v>107300</v>
       </c>
       <c r="K15" s="3">
+        <v>107300</v>
+      </c>
+      <c r="L15" s="3">
         <v>107400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>214100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>107000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>98300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>112200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>86900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1116,108 +1141,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="E17" s="3">
         <v>973000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1030100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1104900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1033400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2142200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1085300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1069900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1069200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2186000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1125000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1093000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1239100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1720300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>718200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>419100</v>
+      </c>
+      <c r="E18" s="3">
         <v>344100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>273500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>338300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>446700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>925500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>455800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>466200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>489000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>944400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>441900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>448200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>194800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>412100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>266200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1236,258 +1268,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>620400</v>
+      </c>
+      <c r="E21" s="3">
         <v>548400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>479000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>543800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>653600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1328700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>659300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>669600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>692000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1346300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>641800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>634900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>402300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>626100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>330200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>118400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>61700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>132800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>73100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>114300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E23" s="3">
         <v>295100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>226200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>287800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>389600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>808300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>399900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>409300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>430500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>815500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>375300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>381700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>126800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>320000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>233300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E24" s="3">
         <v>27400</v>
       </c>
-      <c r="E24" s="3">
-        <v>17200</v>
-      </c>
       <c r="F24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="G24" s="3">
         <v>10100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-49500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>121900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1536,108 +1584,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E26" s="3">
         <v>267700</v>
       </c>
-      <c r="E26" s="3">
-        <v>209000</v>
-      </c>
       <c r="F26" s="3">
+        <v>203900</v>
+      </c>
+      <c r="G26" s="3">
         <v>277700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>362400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>722900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>362500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>458900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>408600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>693600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>293200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>347700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>310700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>217100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E27" s="3">
         <v>267700</v>
       </c>
-      <c r="E27" s="3">
-        <v>209000</v>
-      </c>
       <c r="F27" s="3">
+        <v>203900</v>
+      </c>
+      <c r="G27" s="3">
         <v>277200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>361600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>721000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>361500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>457400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>407000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>690700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>292000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>346400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>310700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>217000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1686,16 +1743,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-5100</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1706,23 +1766,23 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>-7500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-54000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-47400</v>
       </c>
       <c r="M29" s="3">
         <v>-47400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>-47400</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1736,8 +1796,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1786,8 +1849,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1836,108 +1902,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E33" s="3">
         <v>267700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>203900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>277200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>361600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>721000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>354000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>403400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>407000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>643300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>244600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>346400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>310700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>217000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1986,113 +2061,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E35" s="3">
         <v>267700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>203900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>277200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>361600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>721000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>354000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>403400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>407000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>643300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>244600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>346400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>310700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>217000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
         <v>43953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2111,8 +2195,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2131,58 +2216,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1090300</v>
+      </c>
+      <c r="E41" s="3">
         <v>784900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>654400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>648300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>612200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>713600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>605900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>816600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>772600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>806500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>827600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1047800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>908600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5697700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4987300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2213,376 +2302,400 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>490600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1329800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>681700</v>
+      </c>
+      <c r="E43" s="3">
         <v>588200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>584400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>635100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>690000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>686000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>713700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>639700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>710800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>759600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>709800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>689000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>692600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>630400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>472500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>612600</v>
+      </c>
+      <c r="E44" s="3">
         <v>590300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>588500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>609900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>638300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>608100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>593200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>586800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>563600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>551200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>559700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>550800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>519700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>647900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>365600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E45" s="3">
         <v>87800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>83900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>91800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>66600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>72800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>72400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>134900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>67800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>68900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>78600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2485200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2051300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1911200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1985100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2007100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2080500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1985200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2112100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2116600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2188300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2177700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2351300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2188600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7535500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7233700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E47" s="3">
         <v>76000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>30200</v>
       </c>
       <c r="F47" s="3">
         <v>30200</v>
       </c>
       <c r="G47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="H47" s="3">
         <v>32300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1381600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1433000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1436000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1220000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1221200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1211500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1181700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1154300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1108000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1114600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1115400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1107300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1098800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1089300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>628900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16070700</v>
+      </c>
+      <c r="E49" s="3">
         <v>16182600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16330100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16474100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16594300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16739600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16885600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21809000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17174900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17324400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17406500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17536900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17682500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17857400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2206900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2631,8 +2744,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2681,58 +2797,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1579100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1608000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1669200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1683300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1711800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1713200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1741000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>112400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>122200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>120900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>116000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>112000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>110800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2781,58 +2903,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21599600</v>
+      </c>
+      <c r="E54" s="3">
         <v>21350900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21376800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21392600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21566700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21776300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21828300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20438400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20548600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20776500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20853300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21141300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21115000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26622700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10203400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2851,8 +2979,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2871,308 +3000,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>215900</v>
+      </c>
+      <c r="E57" s="3">
         <v>194200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>211700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>225300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>220200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>208200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>222600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>260900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>215700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>213300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>223100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>236600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>228100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>190200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>156700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>449300</v>
+      </c>
+      <c r="E58" s="3">
         <v>448900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>748500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>299700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>411400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>374200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>67000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>50000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300000</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4321200</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1022600</v>
+      </c>
+      <c r="E59" s="3">
         <v>938800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>810400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>983700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>852000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>782600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>627400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1211200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1163600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>963400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1059700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>873000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>937900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>655000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1687800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1582000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1770500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1508600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1483700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1365000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>850000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1051700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1338900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1432900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1236500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1596300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1101100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5449300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>811600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5143700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5142200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4745300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5192300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5278600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5612400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6234500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6265700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6532700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6926400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7384900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7551100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8199200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8572400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3805400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2990600</v>
+      </c>
+      <c r="E62" s="3">
         <v>3035900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3171500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2982600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3014100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3056700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3158400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1852800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1820800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1831800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1884100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1832300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1891800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2634400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>279900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3221,8 +3369,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3271,8 +3422,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3321,58 +3475,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9822000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9760100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9687300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9683500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9776400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10034100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10242800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9170200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9692400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10191100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10505500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10979800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11192100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16656100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4896900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3391,8 +3551,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3441,8 +3602,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3491,8 +3655,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3541,8 +3708,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3591,58 +3761,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7079300</v>
+      </c>
+      <c r="E72" s="3">
         <v>6945400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6906300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6899300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6821800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6659400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6491000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5982700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5449500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5213900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5012400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4910900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4730100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4827500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4873200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3691,8 +3867,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3741,8 +3920,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3791,58 +3973,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11777600</v>
+      </c>
+      <c r="E76" s="3">
         <v>11590900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11689500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11709200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11790200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11742300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11585400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11268200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10856200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10585400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10347800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10161500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9922900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9966600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5306400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3891,113 +4079,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
         <v>43953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E81" s="3">
         <v>267700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>203900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>277200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>361600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>721000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>354000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>403400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>407000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>643300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>244600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>346400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>310700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>217000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4016,58 +4213,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>201500</v>
+      </c>
+      <c r="E83" s="3">
         <v>203300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>203900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>205200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>204100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>402000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>201200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>199900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>398000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>198500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>189700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>202500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>191900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4116,8 +4317,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4166,8 +4370,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4216,8 +4423,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4266,8 +4476,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4316,58 +4529,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>557200</v>
+      </c>
+      <c r="E89" s="3">
         <v>429000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>349600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>657900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>552500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1042600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>371800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>714400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>620700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1107200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>388700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>610700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-360000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>861900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>322600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4386,58 +4605,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-166200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-91000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-86000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-51800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-117100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-150500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4486,8 +4709,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4536,58 +4762,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-170800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-96200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-89000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-170500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>426100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1769800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4606,58 +4838,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-228800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-228600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-199200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-200200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-200100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-377200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-177700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-179400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-178900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-345000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-166700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-166900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-166300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-269000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-129700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4706,8 +4942,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4756,8 +4995,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4806,154 +5048,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-219200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-235700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-289600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-557100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-594600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-975100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-486100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-580700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-599100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-548000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-490100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10971700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1982600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>305300</v>
+      </c>
+      <c r="E102" s="3">
         <v>130500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>36200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-101400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-103000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-210700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-241300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-220300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>139300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4776600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4066100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,234 +665,246 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1526300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1456100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1317100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1303600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1443200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1480100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3067700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1541100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1536100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1558200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3130400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1566900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1541200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1433900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2132400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>984400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>503200</v>
+      </c>
+      <c r="E9" s="3">
         <v>483600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>470400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>455400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>501000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>482300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>994000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>490400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>497600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>986300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>495200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>535100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>667300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>843500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>335900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1023100</v>
+      </c>
+      <c r="E10" s="3">
         <v>972500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>846700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>848200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>942200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>997800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2073700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1039700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1045700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1060600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2144100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1071700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1006100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>766600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1288900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>648500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,61 +924,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>280200</v>
+      </c>
+      <c r="E12" s="3">
         <v>260800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>252400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>257100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>277000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>280100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>573200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>287400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>295300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>291600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>578100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>288600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>273700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>275700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>419200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>184000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,72 +1034,78 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E14" s="3">
         <v>40900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>64800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>58400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>57300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>49500</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>49500</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>49500</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>107100</v>
+        <v>108000</v>
       </c>
       <c r="E15" s="3">
         <v>107100</v>
       </c>
       <c r="F15" s="3">
-        <v>107200</v>
+        <v>107100</v>
       </c>
       <c r="G15" s="3">
         <v>107200</v>
@@ -1092,40 +1114,43 @@
         <v>107200</v>
       </c>
       <c r="I15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="J15" s="3">
         <v>214600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>107300</v>
       </c>
       <c r="K15" s="3">
         <v>107300</v>
       </c>
       <c r="L15" s="3">
+        <v>107300</v>
+      </c>
+      <c r="M15" s="3">
         <v>107400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>214100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>107000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>98300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>112200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>86900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1142,114 +1167,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1064600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1037000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>973000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1030100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1104900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1033400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2142200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1085300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1069900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1069200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2186000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1125000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1093000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1239100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1720300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>718200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>461700</v>
+      </c>
+      <c r="E18" s="3">
         <v>419100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>344100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>273500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>338300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>446700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>925500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>455800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>466200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>489000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>944400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>441900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>448200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>194800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>412100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>266200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1269,273 +1301,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>668100</v>
+      </c>
+      <c r="E21" s="3">
         <v>620400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>548400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>479000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>543800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>653600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1328700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>659300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>669600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>692000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1346300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>641800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>634900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>402300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>626100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>330200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E22" s="3">
         <v>45900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>118400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>61700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>132800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>68000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>63500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>73100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>114300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>417300</v>
+      </c>
+      <c r="E23" s="3">
         <v>373000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>295100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>226200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>287800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>389600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>808300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>399900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>409300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>430500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>815500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>375300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>381700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>126800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>320000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>233300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E24" s="3">
         <v>10400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>85400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-49500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>121900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,114 +1635,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E26" s="3">
         <v>362700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>267700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>203900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>277700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>362400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>722900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>362500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>458900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>408600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>693600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>293200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>347700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>310700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>217100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E27" s="3">
         <v>362700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>267700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>203900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>277200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>361600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>721000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>361500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>457400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>407000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>690700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>292000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>346400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>310700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>217000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1746,8 +1803,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1769,23 +1829,23 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>-7500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-54000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-47400</v>
       </c>
       <c r="N29" s="3">
         <v>-47400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>-47400</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1799,8 +1859,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1852,8 +1915,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1905,114 +1971,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E33" s="3">
         <v>362700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>267700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>203900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>277200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>361600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>721000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>354000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>403400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>407000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>643300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>244600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>346400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>310700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>217000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2064,119 +2139,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E35" s="3">
         <v>362700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>267700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>203900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>277200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>361600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>721000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>354000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>403400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>407000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>643300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>244600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>346400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>310700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>217000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2196,8 +2280,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2217,61 +2302,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1055900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1090300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>784900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>654400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>648300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>612200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>713600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>605900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>816600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>772600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>806500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>827600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1047800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>908600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5697700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4987300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2305,397 +2394,421 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>490600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1329800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>737500</v>
+      </c>
+      <c r="E43" s="3">
         <v>681700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>588200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>584400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>635100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>690000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>686000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>713700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>639700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>710800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>759600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>709800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>689000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>692600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>630400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>472500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>608300</v>
+      </c>
+      <c r="E44" s="3">
         <v>612600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>590300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>588500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>609900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>638300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>608100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>593200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>586800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>563600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>551200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>559700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>550800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>519700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>647900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>365600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E45" s="3">
         <v>100600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>87800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>91800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>66600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>72800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>134900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>80700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>67800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>68900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>78600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2517700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2485200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2051300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1911200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1985100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2007100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2080500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1985200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2112100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2116600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2188300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2177700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2351300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2188600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7535500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7233700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E47" s="3">
         <v>83000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>76000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>30200</v>
       </c>
       <c r="G47" s="3">
         <v>30200</v>
       </c>
       <c r="H47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="I47" s="3">
         <v>32300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1377200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1381600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1433000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1436000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1220000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1221200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1211500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1181700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1154300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1108000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1114600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1115400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1107300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1098800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1089300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>628900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15928700</v>
+      </c>
+      <c r="E49" s="3">
         <v>16070700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16182600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16330100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16474100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16594300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16739600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16885600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21809000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17174900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17324400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17406500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17536900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17682500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17857400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2206900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2747,8 +2860,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2800,61 +2916,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1558300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1579100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1608000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1669200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1683300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1711800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1713200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1741000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>112400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>122200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>116000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>112000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>110800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2906,61 +3028,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21468600</v>
+      </c>
+      <c r="E54" s="3">
         <v>21599600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21350900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21376800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21392600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21566700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21776300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21828300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20438400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20548600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20776500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20853300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21141300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21115000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26622700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10203400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2980,8 +3108,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3001,326 +3130,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>227300</v>
+      </c>
+      <c r="E57" s="3">
         <v>215900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>194200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>211700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>225300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>220200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>208200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>222600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>260900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>215700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>213300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>223100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>236600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>228100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>190200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>156700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>449300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>448900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>748500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>299700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>411400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>374200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>67000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>56000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300000</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4321200</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1137700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1022600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>938800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>810400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>983700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>852000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>782600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>627400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1211200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1163600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>963400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1059700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>873000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>937900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>655000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1687800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1582000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1770500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1508600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1483700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1365000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>850000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1051700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1338900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1432900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1236500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1596300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5449300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>811600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5145100</v>
+      </c>
+      <c r="E61" s="3">
         <v>5143700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5142200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4745300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5192300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5278600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5612400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6234500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6265700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6532700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6926400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7384900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7551100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8199200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8572400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3805400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2960600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2990600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3035900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3171500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2982600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3014100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3056700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3158400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1852800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1820800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1831800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1884100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1832300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1891800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2634400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>279900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3372,8 +3520,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3425,8 +3576,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3478,61 +3632,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9470700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9822000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9760100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9687300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9683500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9776400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10034100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10242800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9170200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9692400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10191100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10505500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10979800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11192100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16656100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4896900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3552,8 +3712,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3605,8 +3766,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3658,8 +3822,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3711,8 +3878,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3764,61 +3934,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7236200</v>
+      </c>
+      <c r="E72" s="3">
         <v>7079300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6945400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6906300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6899300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6821800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6659400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6491000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5982700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5449500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5213900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5012400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4910900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4730100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4827500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4873200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3870,8 +4046,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3923,8 +4102,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3976,61 +4158,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11997900</v>
+      </c>
+      <c r="E76" s="3">
         <v>11777600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11590900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11689500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11709200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11790200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11742300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11585400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11268200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10856200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10585400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10347800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10161500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9922900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9966600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5306400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4082,119 +4270,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E81" s="3">
         <v>362700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>267700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>203900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>277200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>361600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>721000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>354000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>403400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>407000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>643300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>244600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>346400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>310700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>217000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4214,61 +4411,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>202200</v>
+      </c>
+      <c r="E83" s="3">
         <v>201500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>203300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>203900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>205200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>204100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>402000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>201200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>199900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>398000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>198500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>189700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>202500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>191900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4320,8 +4521,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4373,8 +4577,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4426,8 +4633,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4479,8 +4689,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4532,61 +4745,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>672600</v>
+      </c>
+      <c r="E89" s="3">
         <v>557200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>429000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>349600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>657900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>552500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1042600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>371800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>714400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>620700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1107200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>388700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>610700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-360000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>861900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>322600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4606,61 +4825,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-166200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-91000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-86000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-51800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-150500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4712,8 +4935,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4765,61 +4991,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-170800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-96200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-89000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-170500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>426100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1769800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4839,61 +5071,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-229600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-228800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-228600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-199200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-200200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-200100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-377200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-177700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-179400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-178900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-345000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-166700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-166900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-166300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-269000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-129700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4945,8 +5181,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4998,8 +5237,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5051,163 +5293,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-676200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-219200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-235700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-289600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-557100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-594600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-975100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-486100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-580700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-599100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-548000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-490100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10971700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1982600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E102" s="3">
         <v>305300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>130500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>36200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-101400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-103000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-210700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-241300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-220300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>139300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4776600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4066100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,258 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43589</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43498</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43407</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43316</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43225</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43134</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1558500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1526300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1456100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1317100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1303600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1443200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1480100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3067700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1541100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1536100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1558200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3130400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1566900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1541200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1433900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2132400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>984400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>513100</v>
+      </c>
+      <c r="E9" s="3">
         <v>503200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>483600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>470400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>455400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>501000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>482300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>994000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>501400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>490400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>497600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>986300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>495200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>535100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>667300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>843500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>335900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1045400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1023100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>972500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>846700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>848200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>942200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>997800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2073700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1039700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1045700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1060600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2144100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1071700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1006100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>766600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1288900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>648500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,64 +937,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>288200</v>
+      </c>
+      <c r="E12" s="3">
         <v>280200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>260800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>252400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>257100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>277000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>280100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>573200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>287400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>295300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>291600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>578100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>288600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>273700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>275700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>419200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>184000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1037,78 +1053,84 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E14" s="3">
         <v>19100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>40900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>64800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>58400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>57300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>49500</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>49500</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>49500</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E15" s="3">
         <v>108000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>107100</v>
       </c>
       <c r="F15" s="3">
         <v>107100</v>
       </c>
       <c r="G15" s="3">
-        <v>107200</v>
+        <v>107100</v>
       </c>
       <c r="H15" s="3">
         <v>107200</v>
@@ -1117,40 +1139,43 @@
         <v>107200</v>
       </c>
       <c r="J15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K15" s="3">
         <v>214600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>107300</v>
       </c>
       <c r="L15" s="3">
         <v>107300</v>
       </c>
       <c r="M15" s="3">
+        <v>107300</v>
+      </c>
+      <c r="N15" s="3">
         <v>107400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>214100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>107000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>98300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>112200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>86900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>18200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1168,120 +1193,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1094600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1064600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1037000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>973000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1030100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1104900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1033400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2142200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1085300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1069900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1069200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2186000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1125000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1239100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1720300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>718200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>463900</v>
+      </c>
+      <c r="E18" s="3">
         <v>461700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>419100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>344100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>273500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>338300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>446700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>925500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>455800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>466200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>489000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>944400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>441900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>448200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>194800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>412100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>266200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1302,288 +1334,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>22200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>680500</v>
+      </c>
+      <c r="E21" s="3">
         <v>668100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>620400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>548400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>479000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>543800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>653600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1328700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>659300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>669600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>692000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1346300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>641800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>634900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>402300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>626100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>330200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E22" s="3">
         <v>48600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>118400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>132800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>68000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>63500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>73100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>114300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>436600</v>
+      </c>
+      <c r="E23" s="3">
         <v>417300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>373000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>295100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>226200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>287800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>389600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>808300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>399900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>409300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>430500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>815500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>375300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>381700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>126800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>320000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>233300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E24" s="3">
         <v>30800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>85400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-49500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>121900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>82100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,120 +1686,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E26" s="3">
         <v>386500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>362700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>267700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>203900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>277700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>362400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>722900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>362500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>458900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>408600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>693600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>293200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>347700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>68900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>310700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>217100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E27" s="3">
         <v>386500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>362700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>267700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>203900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>277200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>361600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>721000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>361500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>457400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>407000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>690700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>292000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>346400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>310700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>217000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1806,8 +1863,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1832,23 +1892,23 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-7500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-54000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-47400</v>
       </c>
       <c r="O29" s="3">
         <v>-47400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>-47400</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1862,8 +1922,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1918,8 +1981,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1974,120 +2040,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-22200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E33" s="3">
         <v>386500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>362700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>267700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>203900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>277200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>361600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>721000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>354000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>403400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>407000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>643300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>244600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>346400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>310700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>217000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2142,125 +2217,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E35" s="3">
         <v>386500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>362700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>267700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>203900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>277200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>361600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>721000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>354000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>403400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>407000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>643300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>244600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>346400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>310700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>217000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43589</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43498</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43407</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43316</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43225</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43134</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2281,8 +2365,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2303,64 +2388,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1048100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1055900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1090300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>784900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>654400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>648300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>612200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>713600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>605900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>816600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>772600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>806500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>827600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1047800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>908600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5697700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4987300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2397,418 +2486,442 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>490600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1329800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>827000</v>
+      </c>
+      <c r="E43" s="3">
         <v>737500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>681700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>588200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>584400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>635100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>690000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>686000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>713700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>639700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>710800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>759600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>709800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>689000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>692600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>630400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>472500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>618600</v>
+      </c>
+      <c r="E44" s="3">
         <v>608300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>612600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>590300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>588500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>609900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>638300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>608100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>593200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>586800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>563600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>551200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>559700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>550800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>519700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>647900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>365600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E45" s="3">
         <v>116000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>87800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>91800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>134900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>80700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>67800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>68900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>78600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2624700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2517700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2485200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2051300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1911200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1985100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2007100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2080500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1985200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2112100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2116600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2188300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2177700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2351300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2188600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7535500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7233700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E47" s="3">
         <v>86700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>83000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>76000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>30200</v>
       </c>
       <c r="H47" s="3">
         <v>30200</v>
       </c>
       <c r="I47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J47" s="3">
         <v>32300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1129200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1377200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1381600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1433000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1436000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1220000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1221200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1211500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1181700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1154300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1108000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1114600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1115400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1107300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1098800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1089300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>628900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15818200</v>
+      </c>
+      <c r="E49" s="3">
         <v>15928700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16070700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16182600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16330100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16474100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16594300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16739600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16885600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21809000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17174900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17324400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17406500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17536900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17682500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17857400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2206900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2863,8 +2976,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2919,64 +3035,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1776200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1558300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1579100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1608000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1669200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1683300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1711800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1713200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1741000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>112400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>120600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>122200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>127400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>120900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>116000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>112000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>110800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3031,64 +3153,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21440100</v>
+      </c>
+      <c r="E54" s="3">
         <v>21468600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21599600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21350900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21376800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21392600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21566700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21776300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21828300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20438400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20548600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20776500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20853300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21141300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21115000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26622700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10203400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3109,8 +3237,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3131,344 +3260,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>227400</v>
+      </c>
+      <c r="E57" s="3">
         <v>227300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>215900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>194200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>211700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>225300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>220200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>208200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>222600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>260900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>215700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>213300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>223100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>236600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>228100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>190200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>156700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>399200</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>449300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>448900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>748500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>299700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>411400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>374200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>67000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>56000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300000</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4321200</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1050100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1137700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1022600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>938800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>810400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>983700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>852000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>782600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>627400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1211200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1163600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>963400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1059700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>873000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>937900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>655000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1676800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1365000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1687800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1582000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1770500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1508600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1483700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1365000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>850000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1051700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1338900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1432900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1236500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1596300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1101100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5449300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>811600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4747300</v>
+      </c>
+      <c r="E61" s="3">
         <v>5145100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5143700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5142200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4745300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5192300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5278600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5612400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6234500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6265700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6532700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6926400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7384900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7551100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8199200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8572400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3805400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2928300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2960600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2990600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3035900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3171500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2982600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3014100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3056700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3158400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1852800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1820800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1831800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1884100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1832300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1891800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2634400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>279900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3523,8 +3671,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3579,8 +3730,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3635,64 +3789,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9352400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9470700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9822000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9760100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9687300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9683500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9776400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10034100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10242800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9170200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9692400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10191100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10505500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10979800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11192100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16656100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4896900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3713,8 +3873,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3769,8 +3930,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3825,8 +3989,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3881,8 +4048,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3937,64 +4107,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7395600</v>
+      </c>
+      <c r="E72" s="3">
         <v>7236200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7079300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6945400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6906300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6899300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6821800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6659400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6491000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5982700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5449500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5213900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5012400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4910900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4730100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4827500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4873200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4049,8 +4225,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4105,8 +4284,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4161,64 +4343,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12087700</v>
+      </c>
+      <c r="E76" s="3">
         <v>11997900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11777600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11590900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11689500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11709200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11790200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11742300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11585400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11268200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10856200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10585400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10347800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10161500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9922900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9966600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5306400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4273,125 +4461,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43589</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43498</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43407</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43316</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43225</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43134</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>388500</v>
+      </c>
+      <c r="E81" s="3">
         <v>386500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>362700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>267700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>203900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>277200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>361600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>721000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>354000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>403400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>407000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>643300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>244600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>346400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>310700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>217000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4412,64 +4609,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E83" s="3">
         <v>202200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>201500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>203300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>203900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>205200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>204100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>402000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>201200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>199900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>398000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>198500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>189700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>202500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>191900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>54300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4524,8 +4725,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4580,8 +4784,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4636,8 +4843,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4692,8 +4902,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4748,64 +4961,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>427900</v>
+      </c>
+      <c r="E89" s="3">
         <v>672600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>557200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>429000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>349600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>657900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>552500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1042600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>371800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>714400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>620700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1107200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>388700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>610700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-360000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>861900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>322600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4826,64 +5045,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-166200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-91000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-86000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-51800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-150500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4938,8 +5161,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4994,64 +5220,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-63800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-170800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-170500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>426100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1769800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5072,64 +5304,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-229200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-229600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-228800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-228600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-199200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-200200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-200100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-377200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-177700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-179400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-178900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-345000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-166700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-166900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-166300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-269000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-129700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5184,8 +5420,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5240,8 +5479,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5296,172 +5538,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-363800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-676200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-219200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-235700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-289600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-557100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-594600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-975100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-486100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-580700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-599100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-548000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-490100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10971700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1982600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>305300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>130500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>36200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-101400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-103000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-210700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-241300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-220300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>139300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4776600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4066100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43589</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43498</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43407</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43316</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43225</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43134</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1661400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1558500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1526300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1456100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1317100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1303600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1443200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1480100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3067700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1541100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1536100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1558200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3130400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1566900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1541200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1433900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2132400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>984400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>524800</v>
+      </c>
+      <c r="E9" s="3">
         <v>513100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>503200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>483600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>470400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>455400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>501000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>482300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>994000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>501400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>490400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>497600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>986300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>495200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>535100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>667300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>843500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>335900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1136600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1045400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1023100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>972500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>846700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>848200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>942200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>997800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2073700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1039700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1045700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1060600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2144100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1071700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1006100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>766600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1288900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>648500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,67 +950,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>302200</v>
+      </c>
+      <c r="E12" s="3">
         <v>288200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>280200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>260800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>252400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>257100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>277000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>280100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>573200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>287400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>295300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>291600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>578100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>288600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>273700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>275700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>419200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>184000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1056,84 +1072,90 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E14" s="3">
         <v>15600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>40900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>64800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>58400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>57300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>49500</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>49500</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>49500</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E15" s="3">
         <v>107600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>108000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>107100</v>
       </c>
       <c r="G15" s="3">
         <v>107100</v>
       </c>
       <c r="H15" s="3">
-        <v>107200</v>
+        <v>107100</v>
       </c>
       <c r="I15" s="3">
         <v>107200</v>
@@ -1142,40 +1164,43 @@
         <v>107200</v>
       </c>
       <c r="K15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="L15" s="3">
         <v>214600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>107300</v>
       </c>
       <c r="M15" s="3">
         <v>107300</v>
       </c>
       <c r="N15" s="3">
+        <v>107300</v>
+      </c>
+      <c r="O15" s="3">
         <v>107400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>214100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>107000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>98300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>112200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>86900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>18200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1194,126 +1219,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1141700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1094600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1064600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1037000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>973000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1030100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1104900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1033400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2142200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1085300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1069900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1069200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2186000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1093000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1239100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1720300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>718200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>519700</v>
+      </c>
+      <c r="E18" s="3">
         <v>463900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>461700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>419100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>344100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>273500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>338300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>446700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>925500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>455800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>466200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>489000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>944400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>441900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>448200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>194800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>412100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>266200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1335,303 +1367,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>15200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>22200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>717200</v>
+      </c>
+      <c r="E21" s="3">
         <v>680500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>668100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>620400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>548400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>479000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>543800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>653600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1328700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>659300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>669600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>692000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1346300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>641800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>634900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>402300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>626100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>330200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E22" s="3">
         <v>42500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>118400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>61700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>132800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>68000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>63500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>73100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>114300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E23" s="3">
         <v>436600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>417300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>373000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>295100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>226200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>287800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>389600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>808300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>399900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>409300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>430500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>815500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>375300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>381700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>126800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>320000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>233300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E24" s="3">
         <v>48100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-49500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>121900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>82100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,126 +1737,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E26" s="3">
         <v>388500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>386500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>362700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>267700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>203900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>277700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>362400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>722900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>362500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>458900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>408600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>693600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>293200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>347700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>310700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>217100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E27" s="3">
         <v>388500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>386500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>362700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>267700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>203900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>277200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>361600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>721000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>361500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>457400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>407000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>690700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>292000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>346400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>67900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>310700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>217000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1866,8 +1923,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1895,23 +1955,23 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-7500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-54000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-47400</v>
       </c>
       <c r="P29" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>-47400</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1925,8 +1985,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1984,8 +2047,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2043,126 +2109,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-22200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E33" s="3">
         <v>388500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>386500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>362700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>267700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>203900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>277200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>361600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>721000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>354000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>403400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>407000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>643300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>244600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>346400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>67900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>310700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>217000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2220,131 +2295,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E35" s="3">
         <v>388500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>386500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>362700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>267700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>203900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>277200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>361600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>721000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>354000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>403400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>407000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>643300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>244600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>346400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>67900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>310700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>217000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43589</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43498</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43407</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43316</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43225</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43134</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2366,8 +2450,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2389,67 +2474,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1305200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1048100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1055900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1090300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>784900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>654400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>648300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>612200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>713600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>605900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>816600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>772600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>806500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>827600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1047800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>908600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5697700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4987300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2489,439 +2578,463 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>490600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1329800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>814100</v>
+      </c>
+      <c r="E43" s="3">
         <v>827000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>737500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>681700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>588200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>584400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>635100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>690000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>686000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>713700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>639700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>710800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>759600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>709800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>689000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>692600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>630400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>472500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>641200</v>
+      </c>
+      <c r="E44" s="3">
         <v>618600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>608300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>612600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>590300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>588500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>609900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>638300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>608100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>593200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>586800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>563600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>551200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>559700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>550800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>519700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>647900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>365600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E45" s="3">
         <v>131100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>116000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>87800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>91800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>66600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>134900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>71000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>80700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>67800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>68900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>78600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2902800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2624700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2517700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2485200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2051300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1911200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1985100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2007100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2080500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1985200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2112100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2116600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2188300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2177700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2351300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2188600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7535500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7233700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E47" s="3">
         <v>91700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>86700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>83000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>76000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>30200</v>
       </c>
       <c r="I47" s="3">
         <v>30200</v>
       </c>
       <c r="J47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K47" s="3">
         <v>32300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1160600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1129200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1377200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1381600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1433000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1436000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1220000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1221200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1211500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1181700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1154300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1108000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1114600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1115400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1107300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1098800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1089300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>628900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15676000</v>
+      </c>
+      <c r="E49" s="3">
         <v>15818200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15928700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16070700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16182600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16330100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16474100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16594300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16739600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16885600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21809000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17174900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17324400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17406500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17536900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17682500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17857400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2206900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2979,8 +3092,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3038,67 +3154,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1754800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1776200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1558300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1579100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1608000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1669200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1683300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1711800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1713200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1741000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>112400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>120600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>122200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>127400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>120900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>116000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>112000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>110800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3156,67 +3278,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21588200</v>
+      </c>
+      <c r="E54" s="3">
         <v>21440100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21468600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21599600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21350900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21376800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21392600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21566700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21776300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21828300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20438400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20548600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20776500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20853300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21141300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21115000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26622700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10203400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3238,8 +3366,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3261,362 +3390,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E57" s="3">
         <v>227400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>227300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>215900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>194200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>211700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>225300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>220200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>208200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>222600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>260900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>215700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>213300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>223100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>236600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>228100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>190200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>156700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1324500</v>
+      </c>
+      <c r="E58" s="3">
         <v>399200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>449300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>448900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>748500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>299700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>411400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>374200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>67000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>56000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300000</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4321200</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1173200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1050100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1137700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1022600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>938800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>810400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>983700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>852000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>782600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>627400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1211200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1163600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>963400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1059700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>873000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>937900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>655000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2776800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1676800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1365000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1687800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1582000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1770500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1508600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1483700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1365000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>850000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1051700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1338900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1432900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1236500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1596300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1101100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5449300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>811600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3823600</v>
+      </c>
+      <c r="E61" s="3">
         <v>4747300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5145100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5143700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5142200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4745300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5192300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5278600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5612400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6234500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6265700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6532700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6926400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7384900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7551100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8199200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8572400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3805400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2820700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2928300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2960600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2990600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3035900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3171500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2982600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3014100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3056700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3158400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1852800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1820800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1831800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1884100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1832300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1891800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2634400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>279900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3674,8 +3822,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3733,8 +3884,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3792,67 +3946,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9421100</v>
+      </c>
+      <c r="E66" s="3">
         <v>9352400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9470700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9822000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9760100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9687300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9683500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9776400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10034100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10242800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9170200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9692400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10191100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10505500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10979800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11192100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16656100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4896900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3874,8 +4034,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3933,8 +4094,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3992,8 +4156,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4051,8 +4218,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4110,67 +4280,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7564100</v>
+      </c>
+      <c r="E72" s="3">
         <v>7395600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7236200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7079300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6945400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6906300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6899300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6821800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6659400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6491000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5982700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5449500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5213900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5012400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4910900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4730100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4827500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4873200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4228,8 +4404,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4287,8 +4466,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4346,67 +4528,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12167100</v>
+      </c>
+      <c r="E76" s="3">
         <v>12087700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11997900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11777600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11590900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11689500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11709200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11790200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11742300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11585400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11268200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10856200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10585400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10347800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10161500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9922900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9966600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5306400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4464,131 +4652,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43589</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43498</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43407</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43316</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43225</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43134</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>422900</v>
+      </c>
+      <c r="E81" s="3">
         <v>388500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>386500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>362700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>267700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>203900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>277200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>361600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>721000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>354000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>403400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>407000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>643300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>244600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>346400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>67900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>310700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>217000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4610,67 +4807,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E83" s="3">
         <v>201400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>202200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>201500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>203300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>203900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>205200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>204100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>402000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>201200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>199900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>398000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>198500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>189700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>202500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>191900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>54300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4728,8 +4929,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4787,8 +4991,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4846,8 +5053,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4905,8 +5115,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4964,67 +5177,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>736400</v>
+      </c>
+      <c r="E89" s="3">
         <v>427900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>672600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>557200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>429000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>349600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>657900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>552500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1042600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>371800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>714400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>620700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1107200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>388700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>610700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-360000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>861900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>322600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5046,67 +5265,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-166200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-91000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-86000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-51800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-117100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-150500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5164,8 +5387,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5223,67 +5449,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-170800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-96200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-170500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>426100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1769800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5305,67 +5537,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-254400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-229200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-229600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-228800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-228600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-199200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-200200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-200100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-377200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-177700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-179400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-178900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-345000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-166700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-166900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-166300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-269000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-129700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5423,8 +5659,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5482,8 +5721,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5541,181 +5783,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-419600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-363800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-676200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-219200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-235700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-289600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-557100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-594600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-975100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-486100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-580700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-599100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-548000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-490100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10971700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1982600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>257200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>305300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>130500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-101400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-103000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-210700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>44000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-241300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-220300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>139300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4776600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4066100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43589</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43498</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43407</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43316</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43225</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43134</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1758900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1661400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1558500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1526300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1456100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1317100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1303600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1443200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1480100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3067700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1541100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1536100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1558200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3130400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1566900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1541200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1433900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2132400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>984400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>537700</v>
+      </c>
+      <c r="E9" s="3">
         <v>524800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>513100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>503200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>483600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>470400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>455400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>482300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>994000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>501400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>490400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>497600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>986300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>495200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>535100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>667300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>843500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>335900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1136600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1045400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1023100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>972500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>846700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>848200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>942200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>997800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2073700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1039700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1045700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1060600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2144100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1071700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1006100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>766600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1288900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>648500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,70 +963,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>306600</v>
+      </c>
+      <c r="E12" s="3">
         <v>302200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>288200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>280200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>260800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>252400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>257100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>277000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>280100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>573200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>287400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>295300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>291600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>578100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>288600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>273700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>275700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>419200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>184000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,70 +1091,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E14" s="3">
         <v>23300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>40900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>64800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>58400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>57300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>49500</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>49500</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>49500</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1146,19 +1168,19 @@
         <v>107800</v>
       </c>
       <c r="E15" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F15" s="3">
         <v>107600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>108000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>107100</v>
       </c>
       <c r="H15" s="3">
         <v>107100</v>
       </c>
       <c r="I15" s="3">
-        <v>107200</v>
+        <v>107100</v>
       </c>
       <c r="J15" s="3">
         <v>107200</v>
@@ -1167,40 +1189,43 @@
         <v>107200</v>
       </c>
       <c r="L15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="M15" s="3">
         <v>214600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>107300</v>
       </c>
       <c r="N15" s="3">
         <v>107300</v>
       </c>
       <c r="O15" s="3">
+        <v>107300</v>
+      </c>
+      <c r="P15" s="3">
         <v>107400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>214100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>107000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>98300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>112200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>86900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1220,132 +1245,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1149200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1141700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1094600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1064600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1037000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>973000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1030100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1104900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1033400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2142200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1085300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1069900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1069200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2186000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1125000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1093000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1239100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1720300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>718200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>609700</v>
+      </c>
+      <c r="E18" s="3">
         <v>519700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>463900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>461700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>419100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>344100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>273500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>338300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>446700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>925500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>455800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>466200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>489000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>944400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>441900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>448200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>194800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>412100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>266200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1368,318 +1400,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>22200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>813100</v>
+      </c>
+      <c r="E21" s="3">
         <v>717200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>680500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>668100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>620400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>548400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>479000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>543800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>653600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1328700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>659300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>669600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>692000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1346300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>641800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>634900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>402300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>626100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>330200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E22" s="3">
         <v>43100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>42500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>118400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>61700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>132800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>68000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>63500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>73100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>114300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>42600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>572300</v>
+      </c>
+      <c r="E23" s="3">
         <v>476000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>436600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>417300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>373000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>295100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>226200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>287800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>389600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>808300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>399900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>409300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>430500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>815500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>375300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>381700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>126800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>320000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>233300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E24" s="3">
         <v>53100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>48100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-49500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>121900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>82100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,132 +1788,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E26" s="3">
         <v>422900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>388500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>386500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>362700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>267700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>203900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>277700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>362400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>722900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>362500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>458900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>408600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>693600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>293200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>347700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>310700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>217100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E27" s="3">
         <v>422900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>388500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>386500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>362700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>267700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>203900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>277200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>361600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>721000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>361500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>457400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>407000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>690700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>292000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>346400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>67900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>310700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>217000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1926,8 +1983,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1958,23 +2018,23 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-7500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-54000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-47400</v>
       </c>
       <c r="Q29" s="3">
         <v>-47400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>-47400</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1988,8 +2048,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2050,8 +2113,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2112,132 +2178,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-22200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E33" s="3">
         <v>422900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>388500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>386500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>362700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>267700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>203900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>277200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>361600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>721000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>354000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>403400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>407000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>643300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>244600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>346400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>67900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>310700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>217000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2298,137 +2373,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E35" s="3">
         <v>422900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>388500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>386500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>362700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>267700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>203900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>277200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>361600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>721000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>354000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>403400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>407000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>643300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>244600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>346400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>67900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>310700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>217000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43589</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43498</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43407</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43316</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43225</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43134</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2451,8 +2535,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2475,70 +2560,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1480700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1305200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1048100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1055900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1090300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>784900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>654400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>648300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>612200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>713600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>605900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>816600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>772600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>806500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>827600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1047800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>908600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5697700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4987300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2581,460 +2670,484 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>490600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1329800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>823200</v>
+      </c>
+      <c r="E43" s="3">
         <v>814100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>827000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>737500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>681700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>588200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>584400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>635100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>690000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>686000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>713700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>639700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>710800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>759600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>709800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>689000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>692600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>630400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>472500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>657500</v>
+      </c>
+      <c r="E44" s="3">
         <v>641200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>618600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>608300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>612600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>590300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>588500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>609900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>638300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>608100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>593200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>586800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>563600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>551200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>559700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>550800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>519700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>647900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>365600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E45" s="3">
         <v>142200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>131100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>116000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>87800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>91800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>134900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>71000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>80700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>67800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>68900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>78600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3090500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2902800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2624700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2517700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2485200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2051300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1911200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1985100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2007100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2080500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1985200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2112100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2116600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2188300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2177700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2351300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2188600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7535500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7233700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E47" s="3">
         <v>94000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>91700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>86700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>83000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>76000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>30200</v>
       </c>
       <c r="J47" s="3">
         <v>30200</v>
       </c>
       <c r="K47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="L47" s="3">
         <v>32300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1173700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1160600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1129200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1377200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1381600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1433000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1436000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1220000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1221200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1211500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1181700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1154300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1108000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1114600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1115400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1107300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1098800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1089300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>628900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15527700</v>
+      </c>
+      <c r="E49" s="3">
         <v>15676000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15818200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15928700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16070700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16182600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16330100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16474100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16594300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16739600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16885600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21809000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17174900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17324400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17406500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17536900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17682500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17857400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2206900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3095,8 +3208,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3157,70 +3273,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1743800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1754800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1776200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1558300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1579100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1608000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1669200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1683300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1711800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1713200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1741000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>112400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>122200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>127400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>120900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>116000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>112000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>110800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3281,70 +3403,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21641200</v>
+      </c>
+      <c r="E54" s="3">
         <v>21588200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21440100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21468600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21599600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21350900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21376800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21392600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21566700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21776300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21828300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20438400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20548600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20776500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20853300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21141300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21115000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26622700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10203400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3367,8 +3495,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3391,380 +3520,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E57" s="3">
         <v>279200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>227400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>227300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>215900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>194200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>211700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>225300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>220200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>208200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>222600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>260900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>215700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>213300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>223100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>236600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>228100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>190200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>156700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1324700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1324500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>399200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>449300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>448900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>748500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>299700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>411400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>374200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>67000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>56000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300000</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4321200</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1202700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1173200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1050100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1137700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1022600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>938800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>810400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>983700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>852000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>782600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>627400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1211200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1163600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>963400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1059700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>873000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>937900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>655000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2793300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2776800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1676800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1365000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1687800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1582000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1770500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1508600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1483700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1365000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>850000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1051700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1338900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1432900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1236500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1596300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1101100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5449300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>811600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3824800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3823600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4747300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5145100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5143700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5142200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4745300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5192300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5278600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5612400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6234500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6265700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6532700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6926400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7384900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7551100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8199200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8572400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3805400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2759100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2820700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2928300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2960600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2990600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3035900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3171500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2982600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3014100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3056700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3158400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1852800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1820800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1831800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1884100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1832300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1891800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2634400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>279900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3825,8 +3973,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3887,8 +4038,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3949,70 +4103,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9377200</v>
+      </c>
+      <c r="E66" s="3">
         <v>9421100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9352400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9470700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9822000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9760100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9687300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9683500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9776400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10034100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10242800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9170200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9692400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10191100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10505500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10979800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11192100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16656100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4896900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4035,8 +4195,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4097,8 +4258,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4159,8 +4323,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4221,8 +4388,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4283,70 +4453,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7812900</v>
+      </c>
+      <c r="E72" s="3">
         <v>7564100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7395600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7236200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7079300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6945400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6906300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6899300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6821800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6659400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6491000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5982700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5449500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5213900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5012400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4910900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4730100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4827500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4873200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4407,8 +4583,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4469,8 +4648,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4531,70 +4713,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12264000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12167100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12087700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11997900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11777600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11590900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11689500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11709200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11790200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11742300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11585400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11268200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10856200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10585400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10347800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10161500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9922900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9966600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5306400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4655,137 +4843,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43589</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43498</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43407</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43316</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43225</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43134</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E81" s="3">
         <v>422900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>388500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>386500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>362700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>267700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>203900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>277200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>361600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>721000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>354000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>403400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>407000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>643300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>244600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>346400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>67900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>310700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>217000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4808,70 +5005,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>196200</v>
+      </c>
+      <c r="E83" s="3">
         <v>198200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>201400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>202200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>201500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>203300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>203900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>205200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>204100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>402000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>201200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>199900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>398000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>198500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>189700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>202500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>191900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>54300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4932,8 +5133,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4994,8 +5198,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5056,8 +5263,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5118,8 +5328,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5180,70 +5393,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E89" s="3">
         <v>736400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>427900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>672600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>557200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>429000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>349600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>657900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>552500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1042600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>371800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>714400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>620700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1107200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>388700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>610700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-360000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>861900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>322600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5266,70 +5485,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-51100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-166200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-91000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-86000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-117100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-65200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-63600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-150500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5390,8 +5613,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5452,70 +5678,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-60700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-75100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-63800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-170800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-89000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-170500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>426100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1769800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5538,70 +5770,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-254500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-254400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-229200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-229600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-228800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-228600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-199200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-200200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-200100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-377200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-177700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-179400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-178900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-345000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-166700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-166900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-166300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-269000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-129700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5662,8 +5898,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5724,8 +5963,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5786,190 +6028,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-406600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-419600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-363800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-676200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-219200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-235700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-289600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-557100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-594600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-975100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-486100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-580700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-599100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-548000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-490100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10971700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1982600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E102" s="3">
         <v>257200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>305300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>130500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-101400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-103000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-210700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>44000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-241300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-220300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>139300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4776600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4066100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,306 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43589</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43498</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43407</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43316</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43225</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43134</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2684300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2339600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1758900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1661400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1558500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1526300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1456100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1317100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1303600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1443200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1480100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3067700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1541100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1536100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1558200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3130400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1566900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1541200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1433900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2132400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>984400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1282300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1217700</v>
+      </c>
+      <c r="F9" s="3">
         <v>537700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>524800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>513100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>503200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>483600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>470400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>455400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>501000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>482300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>994000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>501400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>490400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>497600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>986300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>495200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>535100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>667300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>843500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>335900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1121900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1221200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1136600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1045400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1023100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>972500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>846700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>848200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>942200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>997800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2073700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1039700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1045700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1060600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2144100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1071700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1006100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>766600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1288900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>648500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,73 +988,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>426800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>399100</v>
+      </c>
+      <c r="F12" s="3">
         <v>306600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>302200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>288200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>280200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>260800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>252400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>257100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>277000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>280100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>573200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>287400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>295300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>291600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>578100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>288600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>273700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>275700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>419200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>184000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,138 +1126,156 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>384100</v>
+      </c>
+      <c r="F14" s="3">
         <v>9400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>23300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>15600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>19100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>40900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>11100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>64800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>29900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>21800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>58400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>57300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>49500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>49500</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>213600</v>
+      </c>
+      <c r="F15" s="3">
         <v>107800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>107800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>107600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>108000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>107100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>107100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>107200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>107200</v>
       </c>
       <c r="L15" s="3">
         <v>107200</v>
       </c>
       <c r="M15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="N15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="O15" s="3">
         <v>214600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>107300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>107300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>107400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>214100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>107000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>98300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>112200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>86900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>18200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1246,138 +1296,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2319500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2455700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1149200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1141700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1094600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1064600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1037000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>973000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1030100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1104900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1033400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2142200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1085300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1069900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1069200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2186000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1125000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1093000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1239100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1720300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>718200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-116100</v>
+      </c>
+      <c r="F18" s="3">
         <v>609700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>519700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>463900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>461700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>419100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>344100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>273500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>338300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>446700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>925500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>455800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>466200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>489000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>944400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>441900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>448200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>194800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>412100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>266200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1401,333 +1465,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F20" s="3">
         <v>7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>15200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>22200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>9700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>945300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>377400</v>
+      </c>
+      <c r="F21" s="3">
         <v>813100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>717200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>680500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>668100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>620400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>548400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>479000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>543800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>653600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1328700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>659300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>669600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>692000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1346300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>641800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>634900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>402300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>626100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>330200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F22" s="3">
         <v>44700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>43100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>42500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>48600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>45900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>48800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>50800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>59900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>118400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>58700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>59100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>61700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>132800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>68000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>63500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>73100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>114300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>42600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>323600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="F23" s="3">
         <v>572300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>476000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>436600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>417300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>373000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>295100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>226200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>287800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>389600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>808300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>399900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>409300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>430500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>815500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>375300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>381700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>126800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>320000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>233300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-231900</v>
+      </c>
+      <c r="F24" s="3">
         <v>69000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>53100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>48100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>30800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>27400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>22300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>27200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>85400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>37400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-49500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>21900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>121900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>82100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>34000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>57900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>9300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>16200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1791,138 +1887,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F26" s="3">
         <v>503300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>422900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>388500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>386500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>362700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>267700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>203900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>277700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>362400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>722900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>362500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>458900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>408600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>693600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>293200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>347700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>68900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>310700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>217100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F27" s="3">
         <v>503300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>422900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>388500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>386500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>362700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>267700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>203900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>277200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>361600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>721000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>361500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>457400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>407000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>690700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>292000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>346400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>67900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>310700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>217000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1986,8 +2100,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2021,26 +2141,26 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-7500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-54000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-47400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-47400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2051,8 +2171,14 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2116,8 +2242,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2181,138 +2313,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-15200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-22200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-9700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F33" s="3">
         <v>503300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>422900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>388500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>386500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>362700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>267700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>203900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>277200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>361600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>721000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>354000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>403400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>407000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>643300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>244600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>346400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>67900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>310700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>217000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2376,143 +2526,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F35" s="3">
         <v>503300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>422900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>388500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>386500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>362700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>267700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>203900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>277200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>361600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>721000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>354000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>403400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>407000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>643300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>244600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>346400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>67900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>310700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>217000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43589</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43498</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43407</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43316</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43225</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43134</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2536,8 +2704,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2561,73 +2731,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1790400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1978000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1480700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1305200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1048100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1055900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1090300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>784900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>654400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>648300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>612200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>713600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>605900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>816600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>772600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>806500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>827600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1047800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>908600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5697700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4987300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2673,481 +2851,529 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>490600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1329800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1636900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1459100</v>
+      </c>
+      <c r="F43" s="3">
         <v>823200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>814100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>827000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>737500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>681700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>588200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>584400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>635100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>690000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>686000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>713700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>639700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>710800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>759600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>709800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>689000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>692600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>630400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>472500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>972600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="F44" s="3">
         <v>657500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>641200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>618600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>608300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>612600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>590300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>588500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>609900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>638300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>608100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>593200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>586800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>563600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>551200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>559700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>550800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>519700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>647900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>365600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>740700</v>
+      </c>
+      <c r="F45" s="3">
         <v>129100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>142200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>131100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>116000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>87800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>83900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>91800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>66600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>72800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>72400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>134900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>69600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>71000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>80700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>63700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>67800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>68900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>78600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4636700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5378300</v>
+      </c>
+      <c r="F46" s="3">
         <v>3090500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2902800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2624700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2517700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2485200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2051300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1911200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1985100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2007100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2080500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1985200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2112100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2116600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2188300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2177700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2351300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2188600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7535500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7233700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
+        <v>127900</v>
+      </c>
+      <c r="F47" s="3">
         <v>105600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>94000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>91700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>86700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>83000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>76000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>30200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>30200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>32300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>31600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>34800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>28700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>28500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>27000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>26200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>24800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>29000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>28500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>23000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2037300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1979100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1173700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1160600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1129200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1377200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1381600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1433000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1436000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1220000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1221200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1211500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1181700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1154300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1108000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1114600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1115400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1107300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1098800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1089300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>628900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41703300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42185600</v>
+      </c>
+      <c r="F49" s="3">
         <v>15527700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>15676000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15818200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>15928700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>16070700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>16182600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>16330100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>16474100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16594300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>16739600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16885600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>21809000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>17174900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>17324400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>17406500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>17536900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>17682500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>17857400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2206900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3211,8 +3437,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3276,73 +3508,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2838300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2651200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1743800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1754800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1776200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1558300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1579100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1608000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1669200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1683300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1711800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1713200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1741000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>112400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>120600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>122200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>127400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>120900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>116000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>112000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>110800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3406,73 +3650,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51215600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>52322100</v>
+      </c>
+      <c r="F54" s="3">
         <v>21641200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21588200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21440100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21468600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21599600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21350900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21376800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21392600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21566700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21776300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21828300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>20438400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>20548600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>20776500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>20853300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>21141300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>21115000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>26622700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10203400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3496,8 +3752,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3521,398 +3779,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>443400</v>
+      </c>
+      <c r="F57" s="3">
         <v>265900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>279200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>227400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>227300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>215900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>194200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>211700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>225300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>220200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>208200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>222600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>260900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>215700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>213300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>223100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>236600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>228100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>190200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>156700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>516700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1324700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1324500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>399200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>449300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>448900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>748500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>299700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>411400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>374200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>67000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>22500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>56000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>50000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>300000</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U58" s="3">
-        <v>4321200</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+        <v>4321200</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1785700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1810200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1202700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1173200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1050100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1137700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1022600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>938800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>810400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>983700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>852000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>782600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>627400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1211200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1163600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>963400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1059700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>873000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>937900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>655000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2221900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2770300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2793300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2776800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1676800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1365000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1687800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1582000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1770500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1508600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1483700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1365000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>850000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1051700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1338900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1432900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1236500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1596300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1101100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5449300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>811600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6253600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6253200</v>
+      </c>
+      <c r="F61" s="3">
         <v>3824800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3823600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4747300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5145100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5143700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5142200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4745300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5192300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5278600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5612400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6234500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6265700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6532700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6926400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7384900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7551100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>8199200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>8572400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3805400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5312800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5306000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2759100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2820700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2928300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2960600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2990600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3035900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3171500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2982600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3014100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3056700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3158400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1852800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1820800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1831800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1884100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1832300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1891800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2634400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>279900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3976,8 +4272,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4041,8 +4343,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4106,73 +4414,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13788300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14329500</v>
+      </c>
+      <c r="F66" s="3">
         <v>9377200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9421100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9352400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9470700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9822000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9760100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9687300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9683500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9776400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10034100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10242800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9170200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9692400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10191100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10505500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10979800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11192100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>16656100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4896900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4196,8 +4516,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4261,8 +4583,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4326,8 +4654,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4391,8 +4725,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4456,73 +4796,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7434700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7517300</v>
+      </c>
+      <c r="F72" s="3">
         <v>7812900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7564100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7395600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7236200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7079300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6945400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6906300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6899300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6821800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6659400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6491000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5982700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5449500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5213900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5012400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4910900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4730100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4827500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4873200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4586,8 +4938,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4651,8 +5009,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4716,73 +5080,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37427300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>37992500</v>
+      </c>
+      <c r="F76" s="3">
         <v>12264000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12167100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12087700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11997900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11777600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11590900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11689500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11709200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11790200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11742300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11585400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11268200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10856200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>10585400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10347800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10161500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>9922900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>9966600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5306400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4846,143 +5222,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43589</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43498</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43407</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43316</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43225</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43134</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F81" s="3">
         <v>503300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>422900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>388500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>386500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>362700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>267700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>203900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>277200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>361600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>721000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>354000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>403400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>407000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>643300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>244600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>346400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>67900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>310700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>217000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5006,73 +5400,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>479000</v>
+      </c>
+      <c r="F83" s="3">
         <v>196200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>198200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>201400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>202200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>201500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>203300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>203900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>205200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>204100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>402000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>200600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>201200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>199900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>398000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>198500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>189700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>202500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>191900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>54300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5136,8 +5538,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5201,8 +5609,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5266,8 +5680,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5331,8 +5751,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5396,73 +5822,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>856400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>940700</v>
+      </c>
+      <c r="F89" s="3">
         <v>630000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>736400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>427900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>672600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>557200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>429000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>349600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>657900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>552500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1042600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>371800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>714400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>620700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1107200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>388700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>610700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-360000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>861900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>322600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5486,73 +5924,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-130800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-86300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-59200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-67400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-29900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-60200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-54800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-51100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-58100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-166200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-91000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-86000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-117100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-63200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-65200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-63600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-150500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-56700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5616,8 +6062,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5681,73 +6133,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2326800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-47500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-60700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-75100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-30700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-33500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-61600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-54700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-63800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-58600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-170800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-96200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-89000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-170500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-64500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-13000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>426100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1769800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5771,73 +6235,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-362600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-371200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-254500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-254400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-229200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-229600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-228800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-228600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-199200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-200200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-200100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-377200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-177700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-179400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-345000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-166700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-166900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-166300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-269000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-129700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5901,8 +6373,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5966,8 +6444,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6031,199 +6515,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-937300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2769700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-406600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-419600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-363800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-676200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-219200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-235700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-289600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-557100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-594600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-975100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-486100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-580700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-599100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-548000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-490100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>10971700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1982600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>497300</v>
+      </c>
+      <c r="F102" s="3">
         <v>175500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>257200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-34400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>305300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>130500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>36200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-101400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-103000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-210700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>44000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-241300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-220300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>139300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4776600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4066100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,330 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43589</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43498</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43407</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43316</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43225</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43134</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3109900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2972100</v>
+      </c>
+      <c r="F8" s="3">
         <v>2684300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2339600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1758900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1661400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1558500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1526300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1456100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1317100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1303600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1443200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1480100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3067700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1541100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1536100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1558200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3130400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1566900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1541200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1433900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2132400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>984400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1066700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1027500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1282300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1217700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>537700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>524800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>513100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>503200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>483600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>470400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>455400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>501000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>482300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>994000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>501400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>490400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>497600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>986300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>495200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>535100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>667300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>843500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>335900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2043200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1944600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1402000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1121900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1221200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1136600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1045400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1023100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>972500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>846700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>848200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>942200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>997800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2073700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1039700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1045700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1060600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2144100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1071700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1006100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>766600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1288900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>648500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,79 +1014,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>431800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>420900</v>
+      </c>
+      <c r="F12" s="3">
         <v>426800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>399100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>306600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>302200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>288200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>280200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>260800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>252400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>257100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>277000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>280100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>573200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>287400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>295300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>291600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>578100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>288600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>273700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>275700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>419200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>184000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1132,150 +1164,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F14" s="3">
         <v>59700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>384100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>9400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>23300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>15600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>19100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>40900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>11100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>64800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>29900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>21800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>58400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>57300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>49500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>49500</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>252900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>253500</v>
+      </c>
+      <c r="F15" s="3">
         <v>253400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>213600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>107800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>107800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>107600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>108000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>107100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>107100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>107200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>107200</v>
       </c>
       <c r="N15" s="3">
         <v>107200</v>
       </c>
       <c r="O15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="P15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>214600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>107300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>107300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>107400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>214100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>107000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>98300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>112200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>86900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>18200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1298,150 +1348,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2216600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2053900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2319500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2455700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1149200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1141700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1094600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1064600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1037000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>973000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1030100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1104900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1033400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2142200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1085300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1069900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1069200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2186000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1125000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1093000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1239100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1720300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>718200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>893300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>918200</v>
+      </c>
+      <c r="F18" s="3">
         <v>364800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-116100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>609700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>519700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>463900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>461700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>419100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>344100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>273500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>338300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>446700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>925500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>455800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>466200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>489000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>944400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>441900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>448200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>194800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>412100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>266200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1467,363 +1531,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F20" s="3">
         <v>10800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>14600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>15200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>22200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>9700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1478100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1504900</v>
+      </c>
+      <c r="F21" s="3">
         <v>945300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>377400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>813100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>717200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>680500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>668100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>620400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>548400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>479000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>543800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>653600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1328700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>659300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>669600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>692000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1346300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>641800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>634900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>402300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>626100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>330200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>54600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>44700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>43100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>42500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>48600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>45900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>48800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>50800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>59900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>118400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>58700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>59100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>61700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>132800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>68000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>63500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>73100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>114300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>42600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>847900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>879200</v>
+      </c>
+      <c r="F23" s="3">
         <v>323600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-156200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>572300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>476000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>436600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>417300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>373000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>295100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>226200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>287800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>389600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>808300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>399900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>409300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>430500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>815500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>375300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>381700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>126800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>320000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>233300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F24" s="3">
         <v>43500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-231900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>69000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>53100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>48100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>30800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>22300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>10100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>27200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>85400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>37400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-49500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>21900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>121900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>82100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>34000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>57900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>9300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>16200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1893,150 +1989,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>783300</v>
+      </c>
+      <c r="F26" s="3">
         <v>280100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>75700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>503300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>422900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>388500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>386500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>362700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>267700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>203900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>277700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>362400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>722900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>362500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>458900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>408600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>693600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>293200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>347700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>68900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>310700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>217100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>783300</v>
+      </c>
+      <c r="F27" s="3">
         <v>280100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>75700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>503300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>422900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>388500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>386500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>362700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>267700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>203900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>277200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>361600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>721000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>361500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>457400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>407000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>690700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>292000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>346400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>67900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>310700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>217000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2106,31 +2220,37 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2147,26 +2267,26 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-54000</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-47400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-47400</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2177,8 +2297,14 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2248,8 +2374,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2319,150 +2451,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-14600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-15200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-22200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>783300</v>
+      </c>
+      <c r="F33" s="3">
         <v>280100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>75700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>503300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>422900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>388500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>386500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>362700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>267700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>203900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>277200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>361600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>721000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>354000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>403400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>407000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>643300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>244600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>346400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>67900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>310700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>217000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2532,155 +2682,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>783300</v>
+      </c>
+      <c r="F35" s="3">
         <v>280100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>75700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>503300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>422900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>388500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>386500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>362700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>267700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>203900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>277200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>361600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>721000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>354000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>403400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>407000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>643300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>244600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>346400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>67900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>310700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>217000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43589</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43498</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43407</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43316</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43225</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43134</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2706,8 +2874,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2733,79 +2903,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1737700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1790400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1978000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1480700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1305200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1048100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1055900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1090300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>784900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>654400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>648300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>612200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>713600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>605900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>816600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>772600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>806500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>827600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1047800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>908600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5697700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4987300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2857,523 +3035,571 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>490600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1329800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1742600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1608300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1636900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1459100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>823200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>814100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>827000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>737500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>681700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>588200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>584400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>635100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>690000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>686000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>713700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>639700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>710800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>759600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>709800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>689000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>692600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>630400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>472500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1203400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1075300</v>
+      </c>
+      <c r="F44" s="3">
         <v>972600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1200600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>657500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>641200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>618600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>608300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>612600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>590300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>588500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>609900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>638300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>608100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>593200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>586800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>563600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>551200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>559700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>550800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>519700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>647900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>365600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>212900</v>
+      </c>
+      <c r="F45" s="3">
         <v>236800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>740700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>129100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>142200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>131100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>116000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>87800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>83900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>91800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>66600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>72800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>72400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>134900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>69600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>71000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>80700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>63700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>67800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>68900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>78600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4689700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4634200</v>
+      </c>
+      <c r="F46" s="3">
         <v>4636700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5378300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3090500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2902800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2624700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2517700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2485200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2051300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1911200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1985100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2007100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2080500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1985200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2112100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2116600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2188300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2177700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2351300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2188600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7535500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7233700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3">
         <v>127900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>105600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>94000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>91700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>86700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>83000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>76000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>30200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>30200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>32300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>31600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>34800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>28700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>28500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>27000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>26200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>24800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>29000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>28500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>23000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2094100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2037300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1979100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1173700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1160600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1129200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1377200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1381600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1433000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1436000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1220000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1221200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1211500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1181700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1154300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1108000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1114600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1115400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1107300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1098800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1089300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>628900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40684800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>41182500</v>
+      </c>
+      <c r="F49" s="3">
         <v>41703300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>42185600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15527700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>15676000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>15818200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15928700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>16070700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>16182600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16330100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>16474100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16594300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16739600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16885600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>21809000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>17174900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>17324400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>17406500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>17536900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>17682500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>17857400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2206900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3443,8 +3669,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3514,79 +3746,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2791600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2889800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2838300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2651200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1743800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1754800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1776200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1558300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1579100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1608000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1669200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1683300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1711800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1713200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1741000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>112400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>120600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>122200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>127400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>120900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>116000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>112000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>110800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3656,79 +3900,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50346200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>50800700</v>
+      </c>
+      <c r="F54" s="3">
         <v>51215600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>52322100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21641200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21588200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21440100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21468600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21599600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21350900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21376800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21392600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21566700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>21776300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>21828300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>20438400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>20548600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>20776500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>20853300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>21141300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>21115000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>26622700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10203400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3754,8 +4010,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3781,79 +4039,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>545100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>451400</v>
+      </c>
+      <c r="F57" s="3">
         <v>436200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>443400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>265900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>279200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>227400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>227300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>215900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>194200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>211700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>225300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>220200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>208200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>222600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>260900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>215700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>213300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>223100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>236600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>228100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>190200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>156700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3861,354 +4127,384 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>516700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1324700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1324500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>399200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>449300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>448900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>748500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>299700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>411400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>374200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>67000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>22500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>56000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>50000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>300000</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W58" s="3">
-        <v>4321200</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+        <v>4321200</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1896100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1874800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1785700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1810200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1202700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1173200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1050100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1137700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1022600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>938800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>810400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>983700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>852000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>782600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>627400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1211200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1163600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>963400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1059700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>873000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>937900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>655000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2441200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2326200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2221900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2770300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2793300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2776800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1676800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1365000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1687800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1582000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1770500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1508600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1483700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1365000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>850000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1051700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1338900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1432900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1236500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1596300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1101100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5449300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>811600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6253600</v>
+        <v>6252800</v>
       </c>
       <c r="E61" s="3">
         <v>6253200</v>
       </c>
       <c r="F61" s="3">
+        <v>6253600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>6253200</v>
+      </c>
+      <c r="H61" s="3">
         <v>3824800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3823600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4747300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5145100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5143700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5142200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4745300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5192300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5278600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5612400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6234500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6265700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6532700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6926400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>7384900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>7551100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>8199200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>8572400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>3805400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5013500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5121400</v>
+      </c>
+      <c r="F62" s="3">
         <v>5312800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5306000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2759100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2820700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2928300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2960600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2990600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3035900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3171500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2982600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3014100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3056700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3158400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1852800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1820800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1831800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1884100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1832300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1891800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2634400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>279900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4278,8 +4574,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4349,8 +4651,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4420,79 +4728,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13707600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13700900</v>
+      </c>
+      <c r="F66" s="3">
         <v>13788300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14329500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9377200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9421100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9352400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9470700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9822000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9760100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9687300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9683500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9776400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10034100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10242800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9170200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9692400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10191100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10505500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10979800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11192100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>16656100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4896900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4518,8 +4838,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4589,8 +4911,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4660,8 +4988,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4731,8 +5065,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4802,79 +5142,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8175400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7820500</v>
+      </c>
+      <c r="F72" s="3">
         <v>7434700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7517300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7812900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7564100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7395600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7236200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7079300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6945400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6906300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6899300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6821800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6659400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6491000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5982700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5449500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5213900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5012400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4910900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4730100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4827500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4873200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4944,8 +5296,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5015,8 +5373,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5086,79 +5450,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36638600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>37099800</v>
+      </c>
+      <c r="F76" s="3">
         <v>37427300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>37992500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12264000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12167100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12087700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11997900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11777600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11590900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11689500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11709200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11790200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11742300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11585400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11268200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10856200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10585400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10347800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10161500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>9922900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>9966600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5306400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5228,155 +5604,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43589</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43498</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43407</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43316</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43225</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43134</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>783300</v>
+      </c>
+      <c r="F81" s="3">
         <v>280100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>75700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>503300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>422900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>388500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>386500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>362700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>267700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>203900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>277200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>361600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>721000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>354000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>403400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>407000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>643300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>244600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>346400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>67900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>310700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>217000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5402,79 +5796,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>576100</v>
+      </c>
+      <c r="F83" s="3">
         <v>569800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>479000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>196200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>198200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>201400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>202200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>201500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>203300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>203900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>205200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>204100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>402000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>200600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>201200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>199900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>398000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>198500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>189700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>202500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>191900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>54300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5544,8 +5946,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5615,8 +6023,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5686,8 +6100,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5757,8 +6177,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5828,79 +6254,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1247800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1221800</v>
+      </c>
+      <c r="F89" s="3">
         <v>856400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>940700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>630000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>736400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>427900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>672600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>557200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>429000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>349600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>657900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>552500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1042600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>371800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>714400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>620700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1107200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>388700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>610700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-360000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>861900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>322600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5926,79 +6364,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-164900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-111100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-130800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-86300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-59200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-67400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-29900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-20800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-60200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-54800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-51100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-58100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-166200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-86000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-51800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-117100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-63200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-65200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-63600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-150500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-56700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6068,8 +6514,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6139,79 +6591,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-103300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2326800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-47500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-60700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-75100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-30700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-33500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-61600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-54700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-63800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-58600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-170800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-96200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-89000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-54500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-170500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-64500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-13000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>426100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1769800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6237,79 +6701,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-394000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-397500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-362600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-371200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-254500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-254400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-229200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-229600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-228800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-228600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-199200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-200200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-200100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-377200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-177700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-179400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-178900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-345000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-166700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-166900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-166300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-269000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-129700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6379,8 +6851,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6450,8 +6928,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6521,217 +7005,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1318400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1148200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-937300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2769700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-406600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-419600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-363800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-676200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-219200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-235700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-289600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-557100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-594600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-975100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-486100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-580700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-599100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-548000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-490100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>10971700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1982600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>3200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-212800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-187600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>497300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>175500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>257200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-34400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>305300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>130500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>36200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-101400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-103000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-210700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>44000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-33900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-241300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-220300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>139300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4776600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4066100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,354 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43589</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43498</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43407</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43316</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43225</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43134</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3249600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3247700</v>
+      </c>
+      <c r="F8" s="3">
         <v>3109900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2972100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2684300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2339600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1758900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1661400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1558500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1526300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1456100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1317100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1303600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1443200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1480100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3067700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1541100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1536100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1558200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3130400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1566900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1541200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1433900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2132400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>984400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1125300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1104900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1066700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1027500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1282300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1217700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>537700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>524800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>513100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>503200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>483600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>470400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>455400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>501000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>482300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>994000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>501400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>490400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>497600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>986300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>495200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>535100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>667300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>843500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>335900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2124300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2142800</v>
+      </c>
+      <c r="F10" s="3">
         <v>2043200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1944600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1402000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1121900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1221200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1136600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1045400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1023100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>972500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>846700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>848200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>942200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>997800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2073700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1039700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1045700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1060600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2144100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1071700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1006100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>766600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1288900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>648500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,85 +1040,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>414100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>421000</v>
+      </c>
+      <c r="F12" s="3">
         <v>431800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>420900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>426800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>399100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>306600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>302200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>288200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>280200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>260800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>252400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>257100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>277000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>280100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>573200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>287400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>295300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>291600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>578100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>288600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>273700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>275700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>419200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>184000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1170,162 +1202,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>196800</v>
+      </c>
+      <c r="F14" s="3">
         <v>138200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>46700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>59700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>384100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>9400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>23300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>19100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>40900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>11100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>64800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>29900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>21800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>58400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>57300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>49500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>49500</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E15" s="3">
         <v>252900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>252900</v>
+      </c>
+      <c r="G15" s="3">
         <v>253500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>253400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>213600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>107800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>107800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>107600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>108000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>107100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>107100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>107200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>107200</v>
       </c>
       <c r="P15" s="3">
         <v>107200</v>
       </c>
       <c r="Q15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="S15" s="3">
         <v>214600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>107300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>107300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>107400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>214100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>107000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>98300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>112200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>86900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>18200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1350,162 +1400,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2118800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2145200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2216600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2053900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2319500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2455700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1149200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1141700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1094600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1064600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1037000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>973000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1030100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1104900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1033400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2142200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1085300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1069900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1069200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2186000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1125000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1093000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1239100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1720300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>718200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1130800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1102500</v>
+      </c>
+      <c r="F18" s="3">
         <v>893300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>918200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>364800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-116100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>609700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>519700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>463900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>461700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>419100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>344100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>273500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>338300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>446700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>925500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>455800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>466200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>489000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>944400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>441900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>448200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>194800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>412100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>266200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1533,393 +1597,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F20" s="3">
         <v>5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>10600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>10800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>14600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>15200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>5100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>22200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>9700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1721400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1668300</v>
+      </c>
+      <c r="F21" s="3">
         <v>1478100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1504900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>945300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>377400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>813100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>717200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>680500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>668100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>620400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>548400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>479000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>543800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>653600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1328700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>659300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>669600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>692000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1346300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>641800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>634900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>402300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>626100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>330200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F22" s="3">
         <v>51200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>49500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>54600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>44700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>43100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>42500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>48600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>45900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>50000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>48800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>50800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>59900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>118400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>58700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>59100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>61700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>132800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>68000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>63500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>73100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>114300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>42600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1073500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="F23" s="3">
         <v>847900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>879200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>323600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-156200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>572300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>476000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>436600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>417300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>373000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>295100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>226200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>287800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>389600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>808300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>399900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>409300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>430500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>815500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>375300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>381700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>126800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>320000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>233300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>111800</v>
+      </c>
+      <c r="F24" s="3">
         <v>99000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>96000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>43500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-231900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>53100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>48100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>30800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>27400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>22300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>27200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>85400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>37400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-49500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>21900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>121900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>82100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>34000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>57900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>9300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>16200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1995,162 +2091,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>961500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>936200</v>
+      </c>
+      <c r="F26" s="3">
         <v>749000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>783300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>280100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>75700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>503300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>422900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>388500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>386500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>362700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>267700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>203900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>277700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>362400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>722900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>362500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>458900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>408600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>693600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>293200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>347700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>68900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>310700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>217100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>961500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>936200</v>
+      </c>
+      <c r="F27" s="3">
         <v>749000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>783300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>280100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>75700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>503300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>422900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>388500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>386500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>362700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>267700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>203900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>277200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>361600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>721000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>361500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>457400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>407000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>690700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>292000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>346400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>67900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>310700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>217000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2226,8 +2340,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2252,11 +2372,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2273,26 +2393,26 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-7500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-54000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-47400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-47400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2303,8 +2423,14 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2380,8 +2506,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2457,162 +2589,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-10600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-10800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-14600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-15200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>961500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>936200</v>
+      </c>
+      <c r="F33" s="3">
         <v>749000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>783300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>280100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>75700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>503300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>422900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>388500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>386500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>362700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>267700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>203900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>277200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>361600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>721000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>354000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>403400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>407000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>643300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>244600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>346400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>67900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>310700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>217000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2688,167 +2838,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>961500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>936200</v>
+      </c>
+      <c r="F35" s="3">
         <v>749000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>783300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>280100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>75700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>503300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>422900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>388500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>386500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>362700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>267700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>203900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>277200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>361600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>721000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>354000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>403400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>407000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>643300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>244600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>346400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>67900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>310700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>217000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43589</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43498</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43407</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43316</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43225</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43134</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2876,8 +3044,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2905,85 +3075,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1670500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1470600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1525000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1737700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1790400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1978000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1480700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1305200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1048100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1055900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1090300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>784900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>654400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>648300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>612200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>713600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>605900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>816600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>772600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>806500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>827600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1047800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>908600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>5697700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>4987300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3041,565 +3219,613 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>490600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>1329800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1629900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1742600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1608300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1636900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1459100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>823200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>814100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>827000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>737500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>681700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>588200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>584400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>635100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>690000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>686000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>713700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>639700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>710800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>759600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>709800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>689000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>692600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>630400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>472500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1522900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1399900</v>
+      </c>
+      <c r="F44" s="3">
         <v>1203400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1075300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>972600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1200600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>657500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>641200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>618600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>608300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>612600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>590300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>588500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>609900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>638300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>608100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>593200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>586800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>563600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>551200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>559700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>550800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>519700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>647900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>365600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>267000</v>
+      </c>
+      <c r="F45" s="3">
         <v>218700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>212900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>236800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>740700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>129100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>142200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>131100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>116000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>87800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>83900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>91800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>66600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>72800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>72400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>134900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>69600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>71000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>80700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>63700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>67800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>68900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>78600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5161500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4938000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4689700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4634200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4636700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5378300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3090500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2902800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2624700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2517700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2485200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2051300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1911200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1985100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2007100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2080500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1985200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2112100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2116600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2188300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2177700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2351300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2188600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>7535500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>7233700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
+      <c r="E47" s="3">
+        <v>122300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="3">
         <v>127900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>105600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>94000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>91700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>86700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>83000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>76000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>30200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>30200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>32300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>31600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>34800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>28700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>28500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>27000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>26200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>24800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>29000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>28500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>23000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2524700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2401300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2180000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2094100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2037300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1979100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1173700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1160600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1129200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1377200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1381600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1433000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1436000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1220000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1221200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1211500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1181700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1154300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1108000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1114600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1115400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1107300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1098800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1089300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>628900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>39676400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40178500</v>
+      </c>
+      <c r="F49" s="3">
         <v>40684800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>41182500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>41703300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>42185600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>15527700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15676000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15818200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15928700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16070700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>16182600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16330100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16474100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16594300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>16739600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>16885600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>21809000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>17174900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>17324400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>17406500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>17536900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>17682500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>17857400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2206900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3675,8 +3901,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3752,85 +3984,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2872000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2662200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2791600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2889800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2838300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2651200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1743800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1754800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1776200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1558300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1579100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1608000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1669200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1683300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1711800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1713200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1741000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>112400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>120600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>122200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>127400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>120900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>116000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>112000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>110800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3906,85 +4150,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50234500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>50302400</v>
+      </c>
+      <c r="F54" s="3">
         <v>50346200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>50800700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>51215600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>52322100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21641200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21588200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21440100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21468600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21599600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21350900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21376800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>21392600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>21566700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>21776300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>21828300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>20438400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>20548600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>20776500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>20853300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>21141300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>21115000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>26622700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>10203400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4012,8 +4268,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4041,90 +4299,98 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>534700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>582200</v>
+      </c>
+      <c r="F57" s="3">
         <v>545100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>451400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>436200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>443400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>265900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>279200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>227400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>227300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>215900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>194200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>211700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>225300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>220200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>208200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>222600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>260900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>215700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>213300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>223100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>236600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>228100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>190200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>156700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4133,378 +4399,408 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>516700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1324700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1324500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>399200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>449300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>448900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>748500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>299700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>411400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>374200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>67000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>22500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>56000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>50000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>300000</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>4321200</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+        <v>4321200</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1860500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1896100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1874800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1785700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1810200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1202700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1173200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1050100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1137700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1022600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>938800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>810400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>983700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>852000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>782600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>627400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1211200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1100700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1163600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>963400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1059700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>873000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>937900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>655000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2433700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2442700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2441200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2326200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2221900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2770300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2793300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2776800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1676800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1365000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1687800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1582000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1770500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1508600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1483700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1365000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>850000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1051700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1338900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1432900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1236500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1596300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1101100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5449300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>811600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6543300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6548600</v>
+      </c>
+      <c r="F61" s="3">
         <v>6252800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>6253200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>6253600</v>
       </c>
       <c r="G61" s="3">
         <v>6253200</v>
       </c>
       <c r="H61" s="3">
+        <v>6253600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>6253200</v>
+      </c>
+      <c r="J61" s="3">
         <v>3824800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3823600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4747300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5145100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5143700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5142200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4745300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5192300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5278600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5612400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6234500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6265700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6532700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>6926400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>7384900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>7551100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>8199200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>8572400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>3805400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4726100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4845700</v>
+      </c>
+      <c r="F62" s="3">
         <v>5013500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5121400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5312800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5306000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2759100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2820700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2928300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2960600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2990600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3035900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3171500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2982600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3014100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3056700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3158400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1852800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1820800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1831800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1884100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1832300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1891800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>2634400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>279900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4580,8 +4876,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4657,8 +4959,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4734,85 +5042,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13703000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13837000</v>
+      </c>
+      <c r="F66" s="3">
         <v>13707600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13700900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13788300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14329500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9377200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9421100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9352400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9470700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9822000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9760100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9687300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9683500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9776400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10034100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10242800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9170200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9692400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10191100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>10505500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>10979800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>11192100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>16656100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4896900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4840,8 +5160,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4917,8 +5239,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4994,8 +5322,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5071,8 +5405,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5148,85 +5488,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9297300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8721300</v>
+      </c>
+      <c r="F72" s="3">
         <v>8175400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7820500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7434700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7517300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7812900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7564100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7395600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7236200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7079300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6945400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6906300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6899300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6821800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6659400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>6491000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5982700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5449500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5213900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5012400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4910900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>4730100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4827500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>4873200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5302,8 +5654,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5379,8 +5737,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5456,85 +5820,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36531500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>36465300</v>
+      </c>
+      <c r="F76" s="3">
         <v>36638600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>37099800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>37427300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>37992500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12264000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12167100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12087700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11997900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11777600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11590900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11689500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11709200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11790200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11742300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11585400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11268200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10856200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10585400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10347800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10161500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>9922900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>9966600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5306400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5610,167 +5986,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43589</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43498</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43407</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43316</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43225</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43134</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>961500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>936200</v>
+      </c>
+      <c r="F81" s="3">
         <v>749000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>783300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>280100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>75700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>503300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>422900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>388500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>386500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>362700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>267700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>203900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>277200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>361600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>721000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>354000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>403400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>407000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>643300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>244600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>346400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>67900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>310700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>217000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5798,85 +6192,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>587500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>572600</v>
+      </c>
+      <c r="F83" s="3">
         <v>579000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>576100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>569800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>479000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>196200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>198200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>201400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>202200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>201500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>203300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>203900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>205200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>204100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>402000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>200600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>201200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>199900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>398000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>198500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>189700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>202500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>191900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>54300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5952,8 +6354,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6029,8 +6437,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6106,8 +6520,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6183,8 +6603,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6260,85 +6686,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1406300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1149300</v>
+      </c>
+      <c r="F89" s="3">
         <v>1247800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1221800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>856400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>940700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>630000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>736400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>427900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>672600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>557200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>429000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>349600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>657900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>552500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1042600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>371800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>714400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>620700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1107200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>388700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>610700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-360000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>861900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>322600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6366,85 +6804,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-176200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-304500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-164900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-118800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-111100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-130800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-86300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-59200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-67400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-29900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-20800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-60200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-54800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-51100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-58100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-166200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-91000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-86000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-51800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-117100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-63200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-65200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-63600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-150500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-56700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6520,8 +6966,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6597,85 +7049,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-306300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-134100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-113600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-103300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2326800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-47500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-60700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-75100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-30700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-33500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-61600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-54700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-63800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-58600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-170800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-96200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-89000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-54500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-170500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-64500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-13000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>426100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>1769800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6703,85 +7167,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-385500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-390300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-394000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-397500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-362600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-371200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-254500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-254400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-229200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-229600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-228800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-228600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-199200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-200200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-200100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-377200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-177700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-179400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-178900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-345000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-166700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-166900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-166300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-269000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-129700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6857,8 +7329,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6934,8 +7412,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7011,235 +7495,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1030400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-886900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1318400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-937300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2769700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-406600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-419600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-363800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-676200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-219200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-235700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-289600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-557100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-594600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-975100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-486100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-580700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-599100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-548000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-490100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>10971700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1982600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-12700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>3600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>199900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-212800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-52700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-187600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>497300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>175500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>257200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-34400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>305300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>130500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>36200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-101400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-103000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-210700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>44000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-33900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-241300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-220300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>139300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>4776600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>4066100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -6830,7 +6830,7 @@
         <v>-130800</v>
       </c>
       <c r="J91" s="3">
-        <v>-86300</v>
+        <v>-63800</v>
       </c>
       <c r="K91" s="3">
         <v>-59200</v>

--- a/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,378 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43771</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43680</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43589</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43498</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43407</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43316</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43225</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43134</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3076500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3262900</v>
+      </c>
+      <c r="F8" s="3">
         <v>3249600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3247700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3109900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2972100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2684300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2339600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1758900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1661400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1558500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1526300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1456100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1317100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1303600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1443200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1480100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3067700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1541100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1536100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1558200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3130400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1566900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1541200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1433900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2132400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>984400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1114900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1118400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1125300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1104900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1066700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1027500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1282300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1217700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>537700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>524800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>513100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>503200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>483600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>470400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>455400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>501000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>482300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>994000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>501400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>490400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>497600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>986300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>495200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>535100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>667300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>843500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>335900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1961600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2144500</v>
+      </c>
+      <c r="F10" s="3">
         <v>2124300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2142800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2043200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1944600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1402000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1121900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1221200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1136600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1045400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1023100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>972500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>846700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>848200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>942200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>997800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2073700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1039700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1045700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1060600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2144100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1071700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1006100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>766600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1288900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>648500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,91 +1066,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>423800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>415800</v>
+      </c>
+      <c r="F12" s="3">
         <v>414100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>421000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>431800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>420900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>426800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>399100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>306600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>302200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>288200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>280200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>260800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>252400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>257100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>277000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>280100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>573200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>287400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>295300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>291600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>578100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>288600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>273700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>275700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>419200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>184000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,174 +1240,192 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="E14" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>196800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>138200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>46700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>59700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>384100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>23300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>15600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>19100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>40900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>11100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>64800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>29900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>21800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>58400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>57300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>49500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>49500</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>250700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>253000</v>
+      </c>
+      <c r="F15" s="3">
         <v>253100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>252900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>252900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>253500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>253400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>213600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>107800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>107800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>107600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>108000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>107100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>107100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>107200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>107200</v>
       </c>
       <c r="R15" s="3">
         <v>107200</v>
       </c>
       <c r="S15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="T15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="U15" s="3">
         <v>214600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>107300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>107300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>107400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>214100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>107000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>98300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>112200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>86900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>18200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1402,174 +1452,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2147000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2134500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2118800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2145200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2216600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2053900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2319500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2455700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1149200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1141700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1094600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1064600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1037000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>973000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1030100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1104900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1033400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2142200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1085300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1069900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1069200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2186000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1125000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1093000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1239100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1720300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>718200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>929500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1128400</v>
+      </c>
+      <c r="F18" s="3">
         <v>1130800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1102500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>893300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>918200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>364800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-116100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>609700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>519700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>463900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>461700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>419100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>344100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>273500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>338300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>446700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>925500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>455800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>466200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>489000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>944400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>441900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>448200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>194800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>412100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>266200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1599,423 +1663,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>10600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>10800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>14600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>15200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>3900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>5100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>22200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>9700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1531900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1733000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1721400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1668300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1478100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1504900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>945300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>377400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>813100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>717200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>680500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>668100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>620400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>548400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>479000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>543800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>653600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1328700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>659300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>669600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>692000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1346300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>641800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>634900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>402300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>626100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>330200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>63300</v>
+      </c>
+      <c r="F22" s="3">
         <v>60500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>47700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>51200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>49500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>54600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>44700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>43100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>42500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>48600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>45900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>50000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>48800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>50800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>59900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>118400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>58700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>59100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>61700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>132800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>68000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>63500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>73100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>114300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>42600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>874800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1087900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1073500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1048000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>847900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>879200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>323600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-156200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>572300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>476000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>436600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>417300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>373000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>295100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>226200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>287800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>389600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>808300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>399900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>409300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>430500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>815500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>375300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>381700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>126800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>320000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>233300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>110300</v>
+      </c>
+      <c r="F24" s="3">
         <v>112000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>111800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>99000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>96000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>43500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-231900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>53100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>48100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>30800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>27400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>22300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>27200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>85400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>37400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-49500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>21900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>121900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>82100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>34000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>57900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>9300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>16200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2097,174 +2193,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>977700</v>
+      </c>
+      <c r="F26" s="3">
         <v>961500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>936200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>749000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>783300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>280100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>75700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>503300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>422900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>388500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>386500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>362700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>267700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>203900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>277700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>362400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>722900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>362500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>458900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>408600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>693600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>293200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>347700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>68900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>310700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>217100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>977700</v>
+      </c>
+      <c r="F27" s="3">
         <v>961500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>936200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>749000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>783300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>280100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>75700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>503300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>422900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>388500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>386500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>362700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>267700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>203900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>277200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>361600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>721000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>361500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>457400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>407000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>690700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>292000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>346400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>67900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>310700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>217000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2346,8 +2460,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2378,11 +2498,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2399,26 +2519,26 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-7500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-54000</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-47400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-47400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2429,8 +2549,14 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2512,8 +2638,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2595,174 +2727,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-10600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-10800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-14600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-15200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-3900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>3100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-22200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>977700</v>
+      </c>
+      <c r="F33" s="3">
         <v>961500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>936200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>749000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>783300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>280100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>75700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>503300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>422900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>388500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>386500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>362700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>267700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>203900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>277200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>361600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>721000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>354000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>403400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>407000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>643300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>244600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>346400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>67900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>310700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>217000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2844,179 +2994,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>977700</v>
+      </c>
+      <c r="F35" s="3">
         <v>961500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>936200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>749000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>783300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>280100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>75700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>503300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>422900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>388500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>386500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>362700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>267700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>203900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>277200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>361600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>721000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>354000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>403400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>407000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>643300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>244600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>346400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>67900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>310700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>217000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43771</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43680</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43589</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43498</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43407</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43316</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43225</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43134</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3046,8 +3214,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3077,91 +3247,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1149200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1177600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1670500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1470600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1525000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1737700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1790400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1978000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1480700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1305200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1048100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1055900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1090300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>784900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>654400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>648300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>612200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>713600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>605900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>816600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>772600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>806500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>827600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1047800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>908600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>5697700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>4987300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3225,607 +3403,655 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>490600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>1329800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1616200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1616300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1629900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1800500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1742600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1608300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1636900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1459100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>823200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>814100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>827000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>737500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>681700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>588200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>584400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>635100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>690000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>686000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>713700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>639700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>710800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>759600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>709800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>689000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>692600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>630400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>472500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1709300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1648100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1522900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1399900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1203400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1075300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>972600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1200600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>657500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>641200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>618600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>608300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>612600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>590300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>588500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>609900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>638300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>608100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>593200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>586800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>563600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>551200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>559700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>550800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>519700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>647900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>365600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>360400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>302900</v>
+      </c>
+      <c r="F45" s="3">
         <v>338200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>267000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>218700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>212900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>236800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>740700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>129100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>142200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>131100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>116000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>87800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>83900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>91800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>66600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>72800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>72400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>134900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>69600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>71000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>80700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>63700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>67800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>68900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>78600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4835200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4744900</v>
+      </c>
+      <c r="F46" s="3">
         <v>5161500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4938000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4689700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4634200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4636700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5378300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3090500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2902800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2624700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2517700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2485200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2051300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1911200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1985100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2007100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2080500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1985200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2112100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2116600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2188300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2177700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2351300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2188600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>7535500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>7233700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3">
-        <v>122300</v>
+      <c r="E47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>24</v>
+      <c r="G47" s="3">
+        <v>122300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="3">
         <v>127900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>105600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>94000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>91700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>86700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>83000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>76000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>30200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>30200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>32300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>31600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>34800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>28700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>28500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>27000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>26200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>24800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>29000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>28500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>23000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2922800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2742000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2524700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2401300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2180000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2094100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2037300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1979100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1173700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1160600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1129200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1377200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1381600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1433000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1436000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1220000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1221200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1211500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1181700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1154300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1108000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1114600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1115400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1107300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1098800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1089300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>628900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38675800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>39174800</v>
+      </c>
+      <c r="F49" s="3">
         <v>39676400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>40178500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>40684800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>41182500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>41703300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42185600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15527700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15676000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>15818200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15928700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16070700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16182600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16330100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>16474100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>16594300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>16739600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>16885600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>21809000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>17174900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>17324400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>17406500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>17536900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>17682500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>17857400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2206900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3907,8 +4133,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3990,91 +4222,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2913000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2883000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2872000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2662200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2791600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2889800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2838300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2651200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1743800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1754800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1776200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1558300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1579100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1608000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1669200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1683300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1711800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1713200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1741000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>112400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>120600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>122200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>127400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>120900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>116000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>112000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>110800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4156,91 +4400,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49346700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>49544700</v>
+      </c>
+      <c r="F54" s="3">
         <v>50234500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>50302400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>50346200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>50800700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>51215600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>52322100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21641200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21588200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21440100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21468600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21599600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>21350900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>21376800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>21392600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>21566700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>21776300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>21828300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>20438400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>20548600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>20776500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>20853300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>21141300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>21115000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>26622700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>10203400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4270,8 +4526,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4301,103 +4559,111 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>585600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>569000</v>
+      </c>
+      <c r="F57" s="3">
         <v>534700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>582200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>545100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>451400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>436200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>443400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>265900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>279200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>227400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>227300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>215900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>194200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>211700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>225300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>220200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>208200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>222600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>260900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>215700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>213300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>223100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>236600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>228100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>190200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>156700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>544700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>253600</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -4405,402 +4671,432 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>516700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1324700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1324500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>399200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>449300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>448900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>748500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>299700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>411400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>374200</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>67000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>22500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>56000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>50000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300000</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>4321200</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+        <v>4321200</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1823800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1899000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1860500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1896100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1874800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1785700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1810200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1202700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1173200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1050100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1137700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1022600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>938800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>810400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>983700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>852000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>782600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>627400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1211200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1100700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1163600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>963400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1059700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>873000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>937900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>655000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2831000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2646400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2433700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2442700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2441200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2326200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2221900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2770300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2793300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2776800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1676800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1365000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1687800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1582000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1770500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1508600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1483700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1365000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>850000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1051700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1338900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1432900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1236500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1596300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1101100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>5449300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>811600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6437700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6475600</v>
+      </c>
+      <c r="F61" s="3">
         <v>6543300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6548600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6252800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>6253200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6253600</v>
       </c>
       <c r="I61" s="3">
         <v>6253200</v>
       </c>
       <c r="J61" s="3">
+        <v>6253600</v>
+      </c>
+      <c r="K61" s="3">
+        <v>6253200</v>
+      </c>
+      <c r="L61" s="3">
         <v>3824800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3823600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4747300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5145100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5143700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5142200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4745300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5192300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5278600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5612400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6234500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>6265700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>6532700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>6926400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>7384900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>7551100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>8199200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>8572400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>3805400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4174300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4409500</v>
+      </c>
+      <c r="F62" s="3">
         <v>4726100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4845700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5013500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5121400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5312800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5306000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2759100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2820700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2928300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2960600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2990600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3035900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3171500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2982600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3014100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3056700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3158400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1852800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1820800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1831800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1884100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1832300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1891800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>2634400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>279900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4882,8 +5178,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4965,8 +5267,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5048,91 +5356,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13443000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13531500</v>
+      </c>
+      <c r="F66" s="3">
         <v>13703000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13837000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13707600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13700900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13788300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14329500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9377200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9421100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9352400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9470700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9822000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9760100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9687300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9683500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9776400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10034100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10242800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9170200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9692400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>10191100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>10505500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>10979800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>11192100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>16656100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>4896900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5162,8 +5482,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5245,8 +5567,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5328,8 +5656,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5411,8 +5745,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5494,91 +5834,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10286400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9839800</v>
+      </c>
+      <c r="F72" s="3">
         <v>9297300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8721300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>8175400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7820500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7434700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7517300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7812900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7564100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7395600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7236200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7079300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6945400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6906300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6899300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>6821800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6659400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>6491000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5982700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5449500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5213900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5012400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4910900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>4730100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>4827500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>4873200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5660,8 +6012,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5743,8 +6101,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5826,91 +6190,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35903700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>36013200</v>
+      </c>
+      <c r="F76" s="3">
         <v>36531500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>36465300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>36638600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>37099800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>37427300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>37992500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12264000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12167100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12087700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11997900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11777600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11590900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11689500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11709200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11790200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11742300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>11585400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11268200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10856200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10585400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>10347800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>10161500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>9922900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>9966600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>5306400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5992,179 +6368,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43771</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43680</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43589</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43498</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43407</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43316</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43225</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43134</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>977700</v>
+      </c>
+      <c r="F81" s="3">
         <v>961500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>936200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>749000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>783300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>280100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>75700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>503300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>422900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>388500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>386500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>362700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>267700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>203900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>277200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>361600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>721000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>354000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>403400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>407000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>643300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>244600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>346400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>67900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>310700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>217000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6194,91 +6588,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>587700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>581800</v>
+      </c>
+      <c r="F83" s="3">
         <v>587500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>572600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>579000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>576100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>569800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>479000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>196200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>198200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>201400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>202200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>201500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>203300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>203900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>205200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>204100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>402000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>200600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>201200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>199900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>398000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>198500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>189700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>202500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>191900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>54300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6360,8 +6762,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6443,8 +6851,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6526,8 +6940,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6609,8 +7029,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6692,91 +7118,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1142500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1081600</v>
+      </c>
+      <c r="F89" s="3">
         <v>1406300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1149300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1247800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1221800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>856400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>940700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>630000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>736400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>427900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>672600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>557200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>429000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>349600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>657900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>552500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1042600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>371800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>714400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>620700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1107200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>388700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>610700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-360000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>861900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>322600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6806,91 +7244,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-324600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-284300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-176200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-304500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-164900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-118800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-111100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-130800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-63800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-59200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-67400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-29900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-20800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-60200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-51100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-58100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-166200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-91000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-86000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-51800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-117100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-63200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-65200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-63600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-150500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-56700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6972,8 +7418,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7055,91 +7507,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-326700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-284500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-176100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-306300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-134100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-113600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-103300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2326800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-47500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-60700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-75100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-30700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-33500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-61600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-54700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-63800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-58600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-170800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-96200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-89000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-54500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-170500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-64500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>426100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>1769800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7169,91 +7633,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-430500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-435200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-385500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-390300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-394000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-397500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-362600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-371200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-254500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-254400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-229200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-229600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-228800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-228600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-199200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-200200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-200100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-377200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-177700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-179400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-178900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-345000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-166700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-166900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-166300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-269000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-129700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7335,8 +7807,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7418,8 +7896,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7501,91 +7985,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-844100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1289900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1030400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-886900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1318400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-937300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2769700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-406600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-419600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-363800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-676200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-219200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-235700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-289600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-557100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-594600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-975100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-486100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-580700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-599100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-548000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-490100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>10971700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>1982600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7593,161 +8089,173 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-10500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-8100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-12700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>3600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-492900</v>
+      </c>
+      <c r="F102" s="3">
         <v>199900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-54400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-212800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-52700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-187600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>497300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>175500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>257200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-34400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>305300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>130500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>36200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-101400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-103000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-210700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>44000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-33900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-241300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-220300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>139300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>4776600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>4066100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-182500</v>
       </c>
     </row>
